--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1258,7 +1258,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
@@ -1271,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16505</v>
+        <v>16763</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1279,7 +1283,7 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="15">
@@ -1469,7 +1473,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023/09/29</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1508,8 +1512,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
@@ -1522,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1530,7 +1542,7 @@
         </is>
       </c>
       <c r="U17" s="2" t="n">
-        <v>45198</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="18">
@@ -1599,7 +1611,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>51883</v>
+        <v>52275</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1672,7 +1684,7 @@
         </is>
       </c>
       <c r="U19" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="20">
@@ -1688,7 +1700,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1736,7 +1748,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
@@ -1749,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62251</v>
+        <v>63371</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1757,7 +1773,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="21">
@@ -1773,7 +1789,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1821,7 +1837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1834,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>5555</v>
+        <v>5615</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1842,7 +1862,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="22">
@@ -2166,7 +2186,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2214,7 +2234,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -2227,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>21048</v>
+        <v>21707</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2235,7 +2259,7 @@
         </is>
       </c>
       <c r="U26" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="27">
@@ -2251,7 +2275,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2299,7 +2323,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
@@ -2312,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>32194</v>
+        <v>32770</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2320,7 +2348,7 @@
         </is>
       </c>
       <c r="U27" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="28">
@@ -2421,7 +2449,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2490,7 +2518,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="30">
@@ -2506,7 +2534,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2554,7 +2582,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -2567,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>19108</v>
+        <v>19413</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2575,7 +2607,7 @@
         </is>
       </c>
       <c r="U30" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="31">
@@ -2676,7 +2708,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2724,7 +2756,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -2737,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55424</v>
+        <v>56259</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2745,7 +2781,7 @@
         </is>
       </c>
       <c r="U32" s="2" t="n">
-        <v>45230</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="33">
@@ -2761,7 +2797,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2809,7 +2845,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
@@ -2822,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>19657</v>
+        <v>19924</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2830,7 +2870,7 @@
         </is>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="34">
@@ -3045,7 +3085,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3093,7 +3133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -3106,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>10321</v>
+        <v>10442</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3114,7 +3158,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="38">
@@ -3130,7 +3174,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3178,7 +3222,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
@@ -3191,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17619</v>
+        <v>17962</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3199,7 +3247,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="39">
@@ -3304,7 +3352,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3369,7 +3417,7 @@
         </is>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45240</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="41">
@@ -3385,7 +3433,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3433,7 +3481,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -3446,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16493</v>
+        <v>16562</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3454,7 +3506,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="42">
@@ -3826,7 +3878,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3874,7 +3926,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
@@ -3887,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>14767</v>
+        <v>15148</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3895,7 +3951,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="47">
@@ -4045,7 +4101,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4093,7 +4149,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
@@ -4106,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>17334</v>
+        <v>17539</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4114,7 +4174,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45222</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="50">
@@ -4130,7 +4190,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4195,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>11828</v>
+        <v>11872</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4203,7 +4263,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="51">
@@ -4308,7 +4368,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4356,7 +4416,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
@@ -4369,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>9530</v>
+        <v>9562</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4377,7 +4441,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="53">
@@ -4559,7 +4623,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4607,7 +4671,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -4620,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>12618</v>
+        <v>12760</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4628,7 +4696,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="56">
@@ -4644,7 +4712,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4688,7 +4756,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
@@ -4701,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>12809</v>
+        <v>13022</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -4709,7 +4781,7 @@
         </is>
       </c>
       <c r="U56" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="57">
@@ -5344,7 +5416,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5392,7 +5464,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -5405,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>4435</v>
+        <v>4507</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5413,7 +5489,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="65">
@@ -5429,7 +5505,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5477,7 +5553,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -5490,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>22859</v>
+        <v>23139</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5498,7 +5578,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="66">
@@ -5603,7 +5683,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5651,7 +5731,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
@@ -5664,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>12454</v>
+        <v>12645</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -5672,7 +5756,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="68">
@@ -5688,7 +5772,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5753,7 +5837,7 @@
         </is>
       </c>
       <c r="U68" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="69">
@@ -5854,7 +5938,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5902,7 +5986,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
@@ -5915,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>22264</v>
+        <v>22601</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -5923,7 +6011,7 @@
         </is>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="71">
@@ -6028,7 +6116,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6076,7 +6164,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
@@ -6089,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>9940</v>
+        <v>10145</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6097,7 +6189,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="73">
@@ -6287,7 +6379,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6335,7 +6427,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>x</t>
@@ -6356,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>2712</v>
+        <v>2755</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -6364,7 +6460,7 @@
         </is>
       </c>
       <c r="U75" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="76">
@@ -6465,7 +6561,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6534,7 +6630,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="78">
@@ -6550,7 +6646,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6598,7 +6694,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -6611,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>32222</v>
+        <v>32825</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6619,7 +6719,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="79">
@@ -6635,7 +6735,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6683,7 +6783,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
@@ -6696,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>70071</v>
+        <v>71157</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -6704,7 +6808,7 @@
         </is>
       </c>
       <c r="U79" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="80">
@@ -6720,7 +6824,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6768,7 +6872,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -6781,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>9537</v>
+        <v>9697</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -6789,7 +6897,7 @@
         </is>
       </c>
       <c r="U80" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="81">
@@ -6894,7 +7002,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6942,7 +7050,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -6955,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -6963,7 +7075,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="83">
@@ -6979,7 +7091,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7027,7 +7139,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -7040,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>62210</v>
+        <v>63315</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7048,7 +7164,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="84">
@@ -7064,7 +7180,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7112,7 +7228,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
@@ -7125,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>39647</v>
+        <v>40366</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -7133,7 +7253,7 @@
         </is>
       </c>
       <c r="U84" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="85">
@@ -7412,7 +7532,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7460,7 +7580,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -7473,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>19712</v>
+        <v>20117</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -7481,7 +7605,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="89">
@@ -7497,7 +7621,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7545,7 +7669,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
@@ -7558,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>6647</v>
+        <v>6715</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -7566,7 +7694,7 @@
         </is>
       </c>
       <c r="U89" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="90">
@@ -8173,7 +8301,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8238,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>18023</v>
+        <v>18162</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8246,7 +8374,7 @@
         </is>
       </c>
       <c r="U97" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="98">
@@ -8432,7 +8560,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8476,7 +8604,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
@@ -8489,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>16976</v>
+        <v>17006</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -8497,7 +8629,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="101">
@@ -8602,7 +8734,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -8650,7 +8782,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
@@ -8663,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>38918</v>
+        <v>39571</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -8671,7 +8807,7 @@
         </is>
       </c>
       <c r="U102" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="103">
@@ -9039,7 +9175,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -9087,7 +9223,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -9100,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>103813</v>
+        <v>105095</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -9108,7 +9248,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="108">
@@ -9383,7 +9523,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9431,7 +9571,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -9444,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>187886</v>
+        <v>189807</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -9452,7 +9596,7 @@
         </is>
       </c>
       <c r="U111" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="112">
@@ -9642,7 +9786,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9687,7 +9831,7 @@
         </is>
       </c>
       <c r="U114" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="115">
@@ -9703,7 +9847,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9751,7 +9895,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
@@ -9764,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>52608</v>
+        <v>53187</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -9772,7 +9920,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="116">
@@ -9788,7 +9936,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9836,7 +9984,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
@@ -9849,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>10720</v>
+        <v>10957</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -9857,7 +10009,7 @@
         </is>
       </c>
       <c r="U116" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="117">
@@ -10051,7 +10203,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -10099,7 +10251,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
@@ -10112,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -10120,7 +10276,7 @@
         </is>
       </c>
       <c r="U119" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="120">
@@ -10225,7 +10381,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10290,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>10981</v>
+        <v>11017</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -10298,7 +10454,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="122">
@@ -10314,7 +10470,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -10362,7 +10518,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
@@ -10375,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>16870</v>
+        <v>17170</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -10383,7 +10543,7 @@
         </is>
       </c>
       <c r="U122" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="123">
@@ -10666,7 +10826,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -10714,7 +10874,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
@@ -10727,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>18998</v>
+        <v>19255</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -10735,7 +10899,7 @@
         </is>
       </c>
       <c r="U126" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="127">
@@ -10840,7 +11004,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -10883,7 +11047,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -10897,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>16297</v>
+        <v>16670</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -10905,7 +11073,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45190</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="129">
@@ -11006,7 +11174,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -11054,7 +11222,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -11067,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>19495</v>
+        <v>19808</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -11075,7 +11247,7 @@
         </is>
       </c>
       <c r="U130" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="131">
@@ -11188,7 +11360,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -11236,7 +11408,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -11249,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>4623</v>
+        <v>4663</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -11257,7 +11433,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45209</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="133">
@@ -11362,7 +11538,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -11410,7 +11586,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
@@ -11423,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>1334</v>
+        <v>1349</v>
       </c>
       <c r="T134" t="inlineStr">
         <is>
@@ -11431,7 +11611,7 @@
         </is>
       </c>
       <c r="U134" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="135">
@@ -13110,7 +13290,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13158,7 +13338,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -13171,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -13179,7 +13363,7 @@
         </is>
       </c>
       <c r="U154" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="155">
@@ -13195,7 +13379,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13243,7 +13427,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
@@ -13256,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>2477</v>
+        <v>2507</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -13264,7 +13452,7 @@
         </is>
       </c>
       <c r="U155" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="156">
@@ -13369,7 +13557,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13417,7 +13605,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
@@ -13430,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>56824</v>
+        <v>57583</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -13438,7 +13630,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="158">
@@ -13794,7 +13986,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13842,7 +14034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="n">
@@ -13855,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>31554</v>
+        <v>32060</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -13863,7 +14059,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="163">
@@ -13879,7 +14075,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13944,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>68146</v>
+        <v>69068</v>
       </c>
       <c r="T163" t="inlineStr">
         <is>
@@ -13952,7 +14148,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="164">
@@ -13968,7 +14164,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -14016,7 +14212,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="n">
@@ -14029,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>35781</v>
+        <v>36252</v>
       </c>
       <c r="T164" t="inlineStr">
         <is>
@@ -14037,7 +14237,7 @@
         </is>
       </c>
       <c r="U164" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="165">
@@ -14053,7 +14253,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -14086,7 +14286,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="166">
@@ -14280,7 +14480,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -14328,7 +14528,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
@@ -14341,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -14349,7 +14553,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="169">
@@ -14454,7 +14658,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -14502,7 +14706,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="n">
@@ -14515,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>21628</v>
+        <v>21885</v>
       </c>
       <c r="T170" t="inlineStr">
         <is>
@@ -14523,7 +14731,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="171">
@@ -14717,7 +14925,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -14782,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>43471</v>
+        <v>43742</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -14790,7 +14998,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="174">
@@ -15425,7 +15633,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15473,7 +15681,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="n">
@@ -15486,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>1407</v>
+        <v>1432</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -15494,7 +15706,7 @@
         </is>
       </c>
       <c r="U181" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="182">
@@ -15599,7 +15811,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -15647,7 +15859,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -15660,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>68262</v>
+        <v>69113</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -15668,7 +15884,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="184">
@@ -16040,7 +16256,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -16088,7 +16304,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
@@ -16101,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="T188" t="inlineStr">
         <is>
@@ -16109,7 +16329,7 @@
         </is>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="189">
@@ -16125,7 +16345,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -16198,7 +16418,7 @@
         </is>
       </c>
       <c r="U189" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="190">
@@ -16214,7 +16434,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -16262,7 +16482,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="n">
@@ -16275,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>17453</v>
+        <v>17611</v>
       </c>
       <c r="T190" t="inlineStr">
         <is>
@@ -16283,7 +16507,7 @@
         </is>
       </c>
       <c r="U190" s="2" t="n">
-        <v>45217</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="191">
@@ -16384,7 +16608,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -16432,7 +16656,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
@@ -16445,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>24298</v>
+        <v>24371</v>
       </c>
       <c r="T192" t="inlineStr">
         <is>
@@ -16453,7 +16681,7 @@
         </is>
       </c>
       <c r="U192" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="193">
@@ -16647,7 +16875,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -16695,7 +16923,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="n">
@@ -16708,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -16716,7 +16948,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="196">
@@ -16821,7 +17053,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -16869,7 +17101,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
@@ -16882,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>8522</v>
+        <v>8643</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -16890,7 +17126,7 @@
         </is>
       </c>
       <c r="U197" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="198">
@@ -16906,7 +17142,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -16971,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>18043</v>
+        <v>18073</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -16979,7 +17215,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="199">
@@ -17080,7 +17316,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -17128,7 +17364,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
@@ -17141,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>95406</v>
+        <v>97226</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -17149,7 +17389,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="201">
@@ -17165,7 +17405,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -17238,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>32213</v>
+        <v>32652</v>
       </c>
       <c r="T201" t="inlineStr">
         <is>
@@ -17246,7 +17486,7 @@
         </is>
       </c>
       <c r="U201" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="202">
@@ -17262,7 +17502,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -17310,7 +17550,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
@@ -17323,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>16580</v>
+        <v>16812</v>
       </c>
       <c r="T202" t="inlineStr">
         <is>
@@ -17331,7 +17575,7 @@
         </is>
       </c>
       <c r="U202" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="203">
@@ -18476,7 +18720,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -18524,7 +18768,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
@@ -18537,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>19677</v>
+        <v>19994</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -18545,7 +18793,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="217">
@@ -18561,7 +18809,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -18609,7 +18857,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
@@ -18622,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>41888</v>
+        <v>42462</v>
       </c>
       <c r="T217" t="inlineStr">
         <is>
@@ -18630,7 +18882,7 @@
         </is>
       </c>
       <c r="U217" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="218">
@@ -18735,7 +18987,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -18783,7 +19035,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="n">
@@ -18796,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>8045</v>
+        <v>8217</v>
       </c>
       <c r="T219" t="inlineStr">
         <is>
@@ -18804,7 +19060,7 @@
         </is>
       </c>
       <c r="U219" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="220">
@@ -18869,7 +19125,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -18917,7 +19173,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
@@ -18930,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>89992</v>
+        <v>91567</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -18938,7 +19198,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="222">
@@ -18954,7 +19214,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -19002,7 +19262,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -19015,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>18482</v>
+        <v>18670</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -19023,7 +19287,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="223">
@@ -19225,7 +19489,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -19290,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>19911</v>
+        <v>20030</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -19298,7 +19562,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="226">
@@ -19460,7 +19724,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -19508,7 +19772,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
@@ -19521,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>17283</v>
+        <v>17575</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -19529,7 +19797,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="229">
@@ -19796,7 +20064,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -19844,7 +20112,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
@@ -19857,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -19865,7 +20137,7 @@
         </is>
       </c>
       <c r="U232" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="233">
@@ -20055,7 +20327,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20103,7 +20375,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="n">
@@ -20116,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>9041</v>
+        <v>9143</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -20124,7 +20400,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="236">
@@ -20237,7 +20513,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -20285,7 +20561,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="n">
@@ -20298,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>20758</v>
+        <v>21009</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -20306,7 +20586,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="238">
@@ -20585,7 +20865,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -20633,7 +20913,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="n">
@@ -20646,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>10206</v>
+        <v>10345</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -20654,7 +20938,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="242">
@@ -21115,7 +21399,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -21163,7 +21447,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="n">
@@ -21176,7 +21464,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>45332</v>
+        <v>45962</v>
       </c>
       <c r="T247" t="inlineStr">
         <is>
@@ -21184,7 +21472,7 @@
         </is>
       </c>
       <c r="U247" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="248">
@@ -21649,7 +21937,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -21697,7 +21985,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="n">
@@ -21710,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>62272</v>
+        <v>62876</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -21718,7 +22010,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="254">
@@ -21819,7 +22111,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -21867,7 +22159,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="n">
@@ -21880,7 +22176,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>6254</v>
+        <v>6319</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -21888,7 +22184,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45214</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="256">
@@ -22758,7 +23054,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -22806,7 +23102,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="n">
@@ -22819,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>1513</v>
+        <v>1541</v>
       </c>
       <c r="T266" t="inlineStr">
         <is>
@@ -22827,7 +23127,7 @@
         </is>
       </c>
       <c r="U266" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="267">
@@ -23195,7 +23495,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -23243,7 +23543,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="n">
@@ -23256,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="S271" t="n">
-        <v>7005</v>
+        <v>7105</v>
       </c>
       <c r="T271" t="inlineStr">
         <is>
@@ -23264,7 +23568,7 @@
         </is>
       </c>
       <c r="U271" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="272">
@@ -23729,7 +24033,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -23778,7 +24082,11 @@
         </is>
       </c>
       <c r="M277" t="inlineStr"/>
-      <c r="N277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="n">
         <v>0</v>
@@ -23790,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>31659</v>
+        <v>32039</v>
       </c>
       <c r="T277" t="inlineStr">
         <is>
@@ -23798,7 +24106,7 @@
         </is>
       </c>
       <c r="U277" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="278">
@@ -24162,7 +24470,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -24210,7 +24518,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="n">
@@ -24223,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="S282" t="n">
-        <v>12920</v>
+        <v>13105</v>
       </c>
       <c r="T282" t="inlineStr">
         <is>
@@ -24231,7 +24543,7 @@
         </is>
       </c>
       <c r="U282" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="283">
@@ -24336,7 +24648,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -24384,7 +24696,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="n">
@@ -24397,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -24405,7 +24721,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="285">
@@ -24599,7 +24915,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -24647,7 +24963,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="n">
@@ -24660,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="S287" t="n">
-        <v>11328</v>
+        <v>11418</v>
       </c>
       <c r="T287" t="inlineStr">
         <is>
@@ -24668,7 +24988,7 @@
         </is>
       </c>
       <c r="U287" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="288">
@@ -24773,7 +25093,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -24821,7 +25141,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
@@ -24834,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -24842,7 +25166,7 @@
         </is>
       </c>
       <c r="U289" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="290">
@@ -24858,7 +25182,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -24906,7 +25230,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="n">
@@ -24919,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>7655</v>
+        <v>7766</v>
       </c>
       <c r="T290" t="inlineStr">
         <is>
@@ -24927,7 +25255,7 @@
         </is>
       </c>
       <c r="U290" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="291">
@@ -24943,7 +25271,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -24991,7 +25319,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="n">
@@ -25004,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>18752</v>
+        <v>18887</v>
       </c>
       <c r="T291" t="inlineStr">
         <is>
@@ -25012,7 +25344,7 @@
         </is>
       </c>
       <c r="U291" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="292">
@@ -25113,7 +25445,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -25161,7 +25493,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="n">
@@ -25174,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>15253</v>
+        <v>15418</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -25182,7 +25518,7 @@
         </is>
       </c>
       <c r="U293" s="2" t="n">
-        <v>45225</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="294">
@@ -25198,7 +25534,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -25237,8 +25573,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="n">
@@ -25251,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>16435</v>
+        <v>16544</v>
       </c>
       <c r="T294" t="inlineStr">
         <is>
@@ -25259,7 +25603,7 @@
         </is>
       </c>
       <c r="U294" s="2" t="n">
-        <v>45191</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="295">
@@ -25615,7 +25959,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -25663,7 +26007,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="n">
@@ -25676,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>10944</v>
+        <v>11087</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -25684,7 +26032,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="300">
@@ -26408,7 +26756,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -26456,7 +26804,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="n">
@@ -26469,7 +26821,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>3004</v>
+        <v>3042</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -26477,7 +26829,7 @@
         </is>
       </c>
       <c r="U308" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="309">
@@ -26760,7 +27112,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
@@ -26793,7 +27145,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="313">
@@ -26809,7 +27161,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -26878,7 +27230,7 @@
         </is>
       </c>
       <c r="U313" s="2" t="n">
-        <v>45233</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="314">
@@ -27865,7 +28217,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -27913,7 +28265,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="n">
@@ -27926,7 +28282,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>37572</v>
+        <v>38149</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -27934,7 +28290,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="326">
@@ -28472,7 +28828,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -28520,7 +28876,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="n">
@@ -28533,7 +28893,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>47860</v>
+        <v>48722</v>
       </c>
       <c r="T332" t="inlineStr">
         <is>
@@ -28541,7 +28901,7 @@
         </is>
       </c>
       <c r="U332" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="333">
@@ -29354,7 +29714,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -29402,7 +29762,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="n">
@@ -29415,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>8205</v>
+        <v>8297</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -29423,7 +29787,7 @@
         </is>
       </c>
       <c r="U342" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="343">
@@ -29439,7 +29803,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -29504,7 +29868,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>12710</v>
+        <v>12743</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -29512,7 +29876,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="344">
@@ -29702,7 +30066,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -29750,7 +30114,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="n">
@@ -29763,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>14607</v>
+        <v>14790</v>
       </c>
       <c r="T346" t="inlineStr">
         <is>
@@ -29771,7 +30139,7 @@
         </is>
       </c>
       <c r="U346" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="347">
@@ -29965,7 +30333,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -30013,7 +30381,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="n">
@@ -30026,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>11068</v>
+        <v>11558</v>
       </c>
       <c r="T349" t="inlineStr">
         <is>
@@ -30034,7 +30406,7 @@
         </is>
       </c>
       <c r="U349" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="350">
@@ -30050,7 +30422,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -30119,7 +30491,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>26663</v>
+        <v>27324</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -30127,7 +30499,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45211</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="351">
@@ -30143,7 +30515,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -30191,7 +30563,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="n">
@@ -30204,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>2049</v>
+        <v>2078</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -30212,7 +30588,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="352">
@@ -30406,7 +30782,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -30454,7 +30830,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="n">
@@ -30467,7 +30847,7 @@
         <v>0</v>
       </c>
       <c r="S354" t="n">
-        <v>4373</v>
+        <v>4420</v>
       </c>
       <c r="T354" t="inlineStr">
         <is>
@@ -30475,7 +30855,7 @@
         </is>
       </c>
       <c r="U354" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="355">
@@ -30669,7 +31049,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -30717,7 +31097,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
@@ -30730,7 +31114,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>65434</v>
+        <v>66396</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -30738,7 +31122,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="358">
@@ -30932,7 +31316,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -30980,7 +31364,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M360" t="inlineStr"/>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="n">
@@ -30993,7 +31381,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>30816</v>
+        <v>31212</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -31001,7 +31389,7 @@
         </is>
       </c>
       <c r="U360" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="361">
@@ -31195,7 +31583,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -31243,7 +31631,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="n">
@@ -31256,7 +31648,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>9953</v>
+        <v>9977</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -31264,7 +31656,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="364">
@@ -31280,7 +31672,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -31315,12 +31707,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="n">
@@ -31333,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>43648</v>
+        <v>43643</v>
       </c>
       <c r="T364" t="inlineStr">
         <is>
@@ -31341,7 +31733,7 @@
         </is>
       </c>
       <c r="U364" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="365">
@@ -31357,7 +31749,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -31405,7 +31797,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="n">
@@ -31418,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>12070</v>
+        <v>12233</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -31426,7 +31822,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="366">
@@ -31442,7 +31838,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -31490,7 +31886,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="n">
@@ -31503,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>2224</v>
+        <v>2257</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -31511,7 +31911,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="367">
@@ -31786,7 +32186,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -31834,7 +32234,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M370" t="inlineStr"/>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="n">
@@ -31847,7 +32251,7 @@
         <v>0</v>
       </c>
       <c r="S370" t="n">
-        <v>4018</v>
+        <v>4068</v>
       </c>
       <c r="T370" t="inlineStr">
         <is>
@@ -31855,7 +32259,7 @@
         </is>
       </c>
       <c r="U370" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="371">
@@ -31871,7 +32275,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -31919,7 +32323,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M371" t="inlineStr"/>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="n">
@@ -31932,7 +32340,7 @@
         <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>24954</v>
+        <v>25293</v>
       </c>
       <c r="T371" t="inlineStr">
         <is>
@@ -31940,7 +32348,7 @@
         </is>
       </c>
       <c r="U371" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="372">
@@ -32664,7 +33072,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -32712,7 +33120,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M380" t="inlineStr"/>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="n">
@@ -32725,7 +33137,7 @@
         <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>22434</v>
+        <v>22815</v>
       </c>
       <c r="T380" t="inlineStr">
         <is>
@@ -32733,7 +33145,7 @@
         </is>
       </c>
       <c r="U380" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="381">
@@ -32838,7 +33250,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -32903,7 +33315,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>16991</v>
+        <v>17044</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -32911,7 +33323,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="383">
@@ -33012,7 +33424,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -33060,7 +33472,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M384" t="inlineStr"/>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="n">
@@ -33073,7 +33489,7 @@
         <v>0</v>
       </c>
       <c r="S384" t="n">
-        <v>81898</v>
+        <v>83020</v>
       </c>
       <c r="T384" t="inlineStr">
         <is>
@@ -33081,7 +33497,7 @@
         </is>
       </c>
       <c r="U384" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="385">
@@ -33097,7 +33513,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -33162,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="S385" t="n">
-        <v>13690</v>
+        <v>13773</v>
       </c>
       <c r="T385" t="inlineStr">
         <is>
@@ -33170,7 +33586,7 @@
         </is>
       </c>
       <c r="U385" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="386">
@@ -33712,7 +34128,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -33777,7 +34193,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>66012</v>
+        <v>66176</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -33785,7 +34201,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="393">
@@ -34149,7 +34565,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -34197,7 +34613,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="n">
@@ -34210,7 +34630,7 @@
         <v>0</v>
       </c>
       <c r="S397" t="n">
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -34218,7 +34638,7 @@
         </is>
       </c>
       <c r="U397" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="398">
@@ -34234,7 +34654,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -34282,7 +34702,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="n">
@@ -34295,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>36359</v>
+        <v>37075</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -34303,7 +34727,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="399">
@@ -34493,7 +34917,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -34541,7 +34965,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
@@ -34554,7 +34982,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>10492</v>
+        <v>10617</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -34562,7 +34990,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="402">
@@ -34578,7 +35006,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -34647,7 +35075,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="403">
@@ -34930,7 +35358,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D406" t="inlineStr"/>
@@ -35007,7 +35435,7 @@
         </is>
       </c>
       <c r="U406" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="407">
@@ -35023,7 +35451,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -35071,7 +35499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="n">
@@ -35084,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>10967</v>
+        <v>11045</v>
       </c>
       <c r="T407" t="inlineStr">
         <is>
@@ -35092,7 +35524,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="408">
@@ -35108,7 +35540,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -35156,7 +35588,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M408" t="inlineStr"/>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="n">
@@ -35169,7 +35605,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -35177,7 +35613,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="409">
@@ -35371,7 +35807,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -35419,7 +35855,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="n">
@@ -35432,7 +35872,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -35440,7 +35880,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="412">
@@ -35545,7 +35985,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -35593,7 +36033,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="n">
@@ -35606,7 +36050,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>9705</v>
+        <v>9841</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -35614,7 +36058,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="414">
@@ -35715,7 +36159,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -35763,7 +36207,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="n">
@@ -35776,7 +36224,7 @@
         <v>0</v>
       </c>
       <c r="S415" t="n">
-        <v>15744</v>
+        <v>15974</v>
       </c>
       <c r="T415" t="inlineStr">
         <is>
@@ -35784,7 +36232,7 @@
         </is>
       </c>
       <c r="U415" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="416">
@@ -35889,7 +36337,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -35954,7 +36402,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>23291</v>
+        <v>23964</v>
       </c>
       <c r="T417" t="inlineStr">
         <is>
@@ -35962,7 +36410,7 @@
         </is>
       </c>
       <c r="U417" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="418">
@@ -35978,7 +36426,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -36026,7 +36474,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="n">
@@ -36039,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>19358</v>
+        <v>19576</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -36047,7 +36499,7 @@
         </is>
       </c>
       <c r="U418" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="419">
@@ -36152,7 +36604,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
@@ -36185,7 +36637,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="421">
@@ -36290,7 +36742,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -36355,7 +36807,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>13302</v>
+        <v>13366</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -36363,7 +36815,7 @@
         </is>
       </c>
       <c r="U422" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="423">
@@ -36715,7 +37167,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -36758,7 +37210,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M427" t="inlineStr"/>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
@@ -36772,7 +37228,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>50306</v>
+        <v>51091</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -36780,7 +37236,7 @@
         </is>
       </c>
       <c r="U427" s="2" t="n">
-        <v>45203</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="428">
@@ -36885,7 +37341,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -36933,7 +37389,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="n">
@@ -36946,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>1822</v>
+        <v>1846</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -36954,7 +37414,7 @@
         </is>
       </c>
       <c r="U429" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="430">
@@ -37108,7 +37568,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -37156,7 +37616,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="n">
@@ -37169,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>1090</v>
+        <v>1222</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -37177,7 +37641,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="433">
@@ -37278,7 +37742,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -37326,7 +37790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="n">
@@ -37339,7 +37807,7 @@
         <v>0</v>
       </c>
       <c r="S434" t="n">
-        <v>1661</v>
+        <v>1703</v>
       </c>
       <c r="T434" t="inlineStr">
         <is>
@@ -37347,7 +37815,7 @@
         </is>
       </c>
       <c r="U434" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="435">
@@ -37363,7 +37831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -37411,7 +37879,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr"/>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="n">
@@ -37424,7 +37896,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>83340</v>
+        <v>84620</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -37432,7 +37904,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="436">
@@ -37537,7 +38009,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -37602,7 +38074,7 @@
         <v>0</v>
       </c>
       <c r="S437" t="n">
-        <v>58502</v>
+        <v>58789</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -37610,7 +38082,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="438">
@@ -37715,7 +38187,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -37763,7 +38235,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M439" t="inlineStr"/>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="n">
@@ -37776,7 +38252,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -37784,7 +38260,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="440">
@@ -37800,7 +38276,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -37848,7 +38324,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M440" t="inlineStr"/>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="n">
@@ -37861,7 +38341,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>2819</v>
+        <v>2869</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -37869,7 +38349,7 @@
         </is>
       </c>
       <c r="U440" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="441">
@@ -37885,7 +38365,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -37933,7 +38413,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M441" t="inlineStr"/>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="n">
@@ -37946,7 +38430,7 @@
         <v>0</v>
       </c>
       <c r="S441" t="n">
-        <v>15501</v>
+        <v>15744</v>
       </c>
       <c r="T441" t="inlineStr">
         <is>
@@ -37954,7 +38438,7 @@
         </is>
       </c>
       <c r="U441" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="442">
@@ -38144,7 +38628,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -38188,7 +38672,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr"/>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="n">
@@ -38201,7 +38689,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="n">
-        <v>9760</v>
+        <v>9891</v>
       </c>
       <c r="T444" t="inlineStr">
         <is>
@@ -38209,7 +38697,7 @@
         </is>
       </c>
       <c r="U444" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="445">
@@ -38225,7 +38713,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -38273,7 +38761,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M445" t="inlineStr"/>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="n">
@@ -38286,7 +38778,7 @@
         <v>0</v>
       </c>
       <c r="S445" t="n">
-        <v>13639</v>
+        <v>13676</v>
       </c>
       <c r="T445" t="inlineStr">
         <is>
@@ -38294,7 +38786,7 @@
         </is>
       </c>
       <c r="U445" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="446">
@@ -38395,7 +38887,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -38460,7 +38952,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>7918</v>
+        <v>7942</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -38468,7 +38960,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="448">
@@ -38484,7 +38976,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -38549,7 +39041,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>91350</v>
+        <v>91965</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -38557,7 +39049,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="449">
@@ -38816,7 +39308,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -38864,7 +39356,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="n">
@@ -38877,7 +39373,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>13101</v>
+        <v>13621</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -38885,7 +39381,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="453">
@@ -38990,7 +39486,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -39038,7 +39534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M454" t="inlineStr"/>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="n">
@@ -39051,7 +39551,7 @@
         <v>0</v>
       </c>
       <c r="S454" t="n">
-        <v>14321</v>
+        <v>14641</v>
       </c>
       <c r="T454" t="inlineStr">
         <is>
@@ -39059,7 +39559,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="455">
@@ -39160,7 +39660,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -39229,7 +39729,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45222</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="457">
@@ -39334,7 +39834,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -39399,7 +39899,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>30184</v>
+        <v>30450</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -39407,7 +39907,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="459">
@@ -39512,7 +40012,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -39577,7 +40077,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>88690</v>
+        <v>89277</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -39585,7 +40085,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="461">
@@ -39771,7 +40271,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -39819,7 +40319,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M463" t="inlineStr"/>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="n">
@@ -39832,7 +40336,7 @@
         <v>0</v>
       </c>
       <c r="S463" t="n">
-        <v>30742</v>
+        <v>31133</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -39840,7 +40344,7 @@
         </is>
       </c>
       <c r="U463" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="464">
@@ -39856,7 +40360,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -39904,7 +40408,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
@@ -39921,7 +40429,7 @@
         <v>0</v>
       </c>
       <c r="S464" t="n">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -39929,7 +40437,7 @@
         </is>
       </c>
       <c r="U464" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="465">
@@ -39945,7 +40453,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -40010,7 +40518,7 @@
         <v>0</v>
       </c>
       <c r="S465" t="n">
-        <v>26942</v>
+        <v>27157</v>
       </c>
       <c r="T465" t="inlineStr">
         <is>
@@ -40018,7 +40526,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="466">
@@ -40034,7 +40542,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -40099,7 +40607,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="n">
-        <v>17990</v>
+        <v>18082</v>
       </c>
       <c r="T466" t="inlineStr">
         <is>
@@ -40107,7 +40615,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="467">
@@ -40212,7 +40720,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -40260,7 +40768,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M468" t="inlineStr"/>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="n">
@@ -40273,7 +40785,7 @@
         <v>0</v>
       </c>
       <c r="S468" t="n">
-        <v>55751</v>
+        <v>56570</v>
       </c>
       <c r="T468" t="inlineStr">
         <is>
@@ -40281,7 +40793,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="469">
@@ -40297,7 +40809,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -40345,7 +40857,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="n">
@@ -40358,7 +40874,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -40366,7 +40882,7 @@
         </is>
       </c>
       <c r="U469" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="470">
@@ -40382,7 +40898,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -40430,7 +40946,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="n">
@@ -40443,7 +40963,7 @@
         <v>0</v>
       </c>
       <c r="S470" t="n">
-        <v>6827</v>
+        <v>6934</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
@@ -40451,7 +40971,7 @@
         </is>
       </c>
       <c r="U470" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="471">
@@ -40556,7 +41076,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -40625,7 +41145,7 @@
         </is>
       </c>
       <c r="U472" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="473">
@@ -40641,7 +41161,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -40689,7 +41209,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M473" t="inlineStr"/>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="n">
@@ -40702,7 +41226,7 @@
         <v>0</v>
       </c>
       <c r="S473" t="n">
-        <v>1379</v>
+        <v>1392</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
@@ -40710,7 +41234,7 @@
         </is>
       </c>
       <c r="U473" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="474">
@@ -40726,7 +41250,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -40774,7 +41298,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="n">
@@ -40787,7 +41315,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -40795,7 +41323,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="475">
@@ -40900,7 +41428,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -40948,7 +41476,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M476" t="inlineStr"/>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="n">
@@ -40961,7 +41493,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>3803</v>
+        <v>3828</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -40969,7 +41501,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="477">
@@ -41422,7 +41954,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -41466,7 +41998,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M482" t="inlineStr"/>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="n">
@@ -41479,7 +42015,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>1872</v>
+        <v>1891</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -41487,7 +42023,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="483">
@@ -41503,7 +42039,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
@@ -41547,7 +42083,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="n">
@@ -41560,7 +42100,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>11143</v>
+        <v>11427</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -41568,7 +42108,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="484">
@@ -41940,7 +42480,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -41988,7 +42528,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="n">
@@ -42001,7 +42545,7 @@
         <v>0</v>
       </c>
       <c r="S488" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
@@ -42009,7 +42553,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45205</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="489">
@@ -42199,7 +42743,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -42264,7 +42808,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>14821</v>
+        <v>14933</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
@@ -42272,7 +42816,7 @@
         </is>
       </c>
       <c r="U491" s="2" t="n">
-        <v>45239</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="492">
@@ -42555,7 +43099,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -42620,7 +43164,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>325985</v>
+        <v>326392</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -42628,7 +43172,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="496">
@@ -42644,7 +43188,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -42709,7 +43253,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>16743</v>
+        <v>16832</v>
       </c>
       <c r="T496" t="inlineStr">
         <is>
@@ -42717,7 +43261,7 @@
         </is>
       </c>
       <c r="U496" s="2" t="n">
-        <v>45245</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="497">
@@ -42822,7 +43366,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -42870,7 +43414,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M498" t="inlineStr"/>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="n">
@@ -42883,7 +43431,7 @@
         <v>0</v>
       </c>
       <c r="S498" t="n">
-        <v>3470</v>
+        <v>3483</v>
       </c>
       <c r="T498" t="inlineStr">
         <is>
@@ -42891,7 +43439,7 @@
         </is>
       </c>
       <c r="U498" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="499">
@@ -42907,7 +43455,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -42955,7 +43503,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M499" t="inlineStr"/>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="n">
@@ -42968,7 +43520,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>4826</v>
+        <v>4888</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -42976,7 +43528,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="500">
@@ -43154,7 +43706,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -43219,7 +43771,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>16826</v>
+        <v>16890</v>
       </c>
       <c r="T502" t="inlineStr">
         <is>
@@ -43227,7 +43779,7 @@
         </is>
       </c>
       <c r="U502" s="2" t="n">
-        <v>45236</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="503">
@@ -43243,7 +43795,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -43291,7 +43843,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="n">
@@ -43304,7 +43860,7 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>20802</v>
+        <v>21128</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
@@ -43312,7 +43868,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="504">
@@ -43413,7 +43969,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -43461,7 +44017,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M505" t="inlineStr"/>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="n">
@@ -43474,7 +44034,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="n">
-        <v>23669</v>
+        <v>23910</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
@@ -43482,7 +44042,7 @@
         </is>
       </c>
       <c r="U505" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="506">
@@ -43587,7 +44147,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -43635,7 +44195,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M507" t="inlineStr"/>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="n">
@@ -43648,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>9558</v>
+        <v>9686</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -43656,7 +44220,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="508">
@@ -43761,7 +44325,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -43809,7 +44373,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M509" t="inlineStr"/>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="n">
@@ -43822,7 +44390,7 @@
         <v>0</v>
       </c>
       <c r="S509" t="n">
-        <v>73729</v>
+        <v>74770</v>
       </c>
       <c r="T509" t="inlineStr">
         <is>
@@ -43830,7 +44398,7 @@
         </is>
       </c>
       <c r="U509" s="2" t="n">
-        <v>45214</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="510">
@@ -44182,7 +44750,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -44230,7 +44798,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M514" t="inlineStr"/>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="n">
@@ -44243,7 +44815,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>3926</v>
+        <v>3981</v>
       </c>
       <c r="T514" t="inlineStr">
         <is>
@@ -44251,7 +44823,7 @@
         </is>
       </c>
       <c r="U514" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="515">
@@ -44623,7 +45195,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -44671,7 +45243,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M519" t="inlineStr"/>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="n">
@@ -44684,7 +45260,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>2630</v>
+        <v>2667</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -44692,7 +45268,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="520">
@@ -44793,7 +45369,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -44841,7 +45417,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M521" t="inlineStr"/>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="n">
@@ -44854,7 +45434,7 @@
         <v>0</v>
       </c>
       <c r="S521" t="n">
-        <v>105619</v>
+        <v>107113</v>
       </c>
       <c r="T521" t="inlineStr">
         <is>
@@ -44862,7 +45442,7 @@
         </is>
       </c>
       <c r="U521" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="522">
@@ -44878,7 +45458,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -44926,7 +45506,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M522" t="inlineStr"/>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="n">
@@ -44939,7 +45523,7 @@
         <v>0</v>
       </c>
       <c r="S522" t="n">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="T522" t="inlineStr">
         <is>
@@ -44947,7 +45531,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="523">
@@ -44963,7 +45547,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -45011,7 +45595,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N523" t="inlineStr">
         <is>
           <t>x</t>
@@ -45028,7 +45616,7 @@
         <v>0</v>
       </c>
       <c r="S523" t="n">
-        <v>10577</v>
+        <v>10652</v>
       </c>
       <c r="T523" t="inlineStr">
         <is>
@@ -45036,7 +45624,7 @@
         </is>
       </c>
       <c r="U523" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="524">
@@ -45141,7 +45729,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -45189,7 +45777,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
@@ -45202,7 +45794,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>22598</v>
+        <v>22884</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -45210,7 +45802,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="526">
@@ -45226,7 +45818,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -45274,7 +45866,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M526" t="inlineStr"/>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="n">
@@ -45287,7 +45883,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="T526" t="inlineStr">
         <is>
@@ -45295,7 +45891,7 @@
         </is>
       </c>
       <c r="U526" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="527">
@@ -45627,7 +46223,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -45675,7 +46271,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="n">
@@ -45688,7 +46288,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>42149</v>
+        <v>42895</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -45696,7 +46296,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45218</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="532">
@@ -45886,7 +46486,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -45934,7 +46534,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M534" t="inlineStr"/>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="n">
@@ -45947,7 +46551,7 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>31229</v>
+        <v>31670</v>
       </c>
       <c r="T534" t="inlineStr">
         <is>
@@ -45955,7 +46559,7 @@
         </is>
       </c>
       <c r="U534" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="535">
@@ -45971,7 +46575,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -46019,7 +46623,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M535" t="inlineStr"/>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="n">
@@ -46032,7 +46640,7 @@
         <v>0</v>
       </c>
       <c r="S535" t="n">
-        <v>42542</v>
+        <v>43032</v>
       </c>
       <c r="T535" t="inlineStr">
         <is>
@@ -46040,7 +46648,7 @@
         </is>
       </c>
       <c r="U535" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="536">
@@ -46056,7 +46664,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -46121,7 +46729,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>24497</v>
+        <v>24752</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -46129,7 +46737,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="537">
@@ -46412,7 +47020,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2023/06/12</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -46465,7 +47073,7 @@
         </is>
       </c>
       <c r="U540" s="2" t="n">
-        <v>45089</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="541">
@@ -46570,7 +47178,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -46639,7 +47247,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="543">
@@ -46655,7 +47263,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -46703,7 +47311,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
@@ -46716,7 +47328,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>48676</v>
+        <v>49851</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -46724,7 +47336,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45236</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="544">
@@ -46740,7 +47352,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -46778,8 +47390,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M544" t="inlineStr"/>
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr"/>
@@ -46793,7 +47413,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>20817</v>
+        <v>21658</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -46801,7 +47421,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45156</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="545">
@@ -46817,7 +47437,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -46882,7 +47502,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="546">
@@ -47250,7 +47870,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -47323,7 +47943,7 @@
         </is>
       </c>
       <c r="U550" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="551">
@@ -47339,7 +47959,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -47404,7 +48024,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>26117</v>
+        <v>26369</v>
       </c>
       <c r="T551" t="inlineStr">
         <is>
@@ -47412,7 +48032,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="552">
@@ -47428,7 +48048,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -47476,7 +48096,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M552" t="inlineStr"/>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="n">
@@ -47489,7 +48113,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>15820</v>
+        <v>15977</v>
       </c>
       <c r="T552" t="inlineStr">
         <is>
@@ -47497,7 +48121,7 @@
         </is>
       </c>
       <c r="U552" s="2" t="n">
-        <v>45218</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="553">
@@ -47513,7 +48137,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -47561,7 +48185,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M553" t="inlineStr"/>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="n">
@@ -47574,7 +48202,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="n">
-        <v>58187</v>
+        <v>60703</v>
       </c>
       <c r="T553" t="inlineStr">
         <is>
@@ -47582,7 +48210,7 @@
         </is>
       </c>
       <c r="U553" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="554">
@@ -47598,7 +48226,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -47663,7 +48291,7 @@
         </is>
       </c>
       <c r="U554" s="2" t="n">
-        <v>45222</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="555">
@@ -48197,7 +48825,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -48245,7 +48873,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M561" t="inlineStr"/>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N561" t="inlineStr"/>
       <c r="O561" t="inlineStr"/>
       <c r="P561" t="n">
@@ -48258,7 +48890,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>21635</v>
+        <v>21753</v>
       </c>
       <c r="T561" t="inlineStr">
         <is>
@@ -48266,7 +48898,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="562">
@@ -48719,7 +49351,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -48767,7 +49399,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M567" t="inlineStr"/>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N567" t="inlineStr"/>
       <c r="O567" t="inlineStr"/>
       <c r="P567" t="n">
@@ -48780,7 +49416,7 @@
         <v>0</v>
       </c>
       <c r="S567" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T567" t="inlineStr">
         <is>
@@ -48788,7 +49424,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="568">
@@ -48893,7 +49529,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -48941,7 +49577,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M569" t="inlineStr"/>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr"/>
       <c r="P569" t="n">
@@ -48954,7 +49594,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>2833</v>
+        <v>2874</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -48962,7 +49602,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="570">
@@ -49241,7 +49881,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -49289,7 +49929,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M573" t="inlineStr"/>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="n">
@@ -49302,7 +49946,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -49310,7 +49954,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="574">
@@ -49326,7 +49970,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -49374,7 +50018,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M574" t="inlineStr"/>
+      <c r="M574" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N574" t="inlineStr"/>
       <c r="O574" t="inlineStr"/>
       <c r="P574" t="n">
@@ -49387,7 +50035,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="n">
-        <v>4791</v>
+        <v>4850</v>
       </c>
       <c r="T574" t="inlineStr">
         <is>
@@ -49395,7 +50043,7 @@
         </is>
       </c>
       <c r="U574" s="2" t="n">
-        <v>45212</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="575">
@@ -49581,7 +50229,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -49646,7 +50294,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="n">
-        <v>12009</v>
+        <v>12078</v>
       </c>
       <c r="T577" t="inlineStr">
         <is>
@@ -49654,7 +50302,7 @@
         </is>
       </c>
       <c r="U577" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="578">
@@ -49670,7 +50318,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -49718,7 +50366,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M578" t="inlineStr"/>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="inlineStr"/>
       <c r="P578" t="n">
@@ -49731,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="n">
-        <v>1595</v>
+        <v>1622</v>
       </c>
       <c r="T578" t="inlineStr">
         <is>
@@ -49739,7 +50391,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="579">
@@ -50018,7 +50670,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -50087,7 +50739,7 @@
         <v>0</v>
       </c>
       <c r="S582" t="n">
-        <v>10347</v>
+        <v>10506</v>
       </c>
       <c r="T582" t="inlineStr">
         <is>
@@ -50095,7 +50747,7 @@
         </is>
       </c>
       <c r="U582" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="583">
@@ -50160,7 +50812,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -50208,7 +50860,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M584" t="inlineStr"/>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N584" t="inlineStr"/>
       <c r="O584" t="inlineStr"/>
       <c r="P584" t="n">
@@ -50221,7 +50877,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>11129</v>
+        <v>11158</v>
       </c>
       <c r="T584" t="inlineStr">
         <is>
@@ -50229,7 +50885,7 @@
         </is>
       </c>
       <c r="U584" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="585">
@@ -50334,7 +50990,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -50382,7 +51038,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="n">
@@ -50395,7 +51055,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -50403,7 +51063,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="587">
@@ -50419,7 +51079,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -50467,7 +51127,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M587" t="inlineStr"/>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N587" t="inlineStr"/>
       <c r="O587" t="inlineStr"/>
       <c r="P587" t="n">
@@ -50480,7 +51144,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>63920</v>
+        <v>64851</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -50488,7 +51152,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="588">
@@ -50504,7 +51168,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -50552,7 +51216,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M588" t="inlineStr"/>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N588" t="inlineStr"/>
       <c r="O588" t="inlineStr"/>
       <c r="P588" t="n">
@@ -50565,7 +51233,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>153649</v>
+        <v>154619</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -50573,7 +51241,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="589">
@@ -51034,7 +51702,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -51082,7 +51750,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M594" t="inlineStr"/>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N594" t="inlineStr"/>
       <c r="O594" t="inlineStr"/>
       <c r="P594" t="n">
@@ -51095,7 +51767,7 @@
         <v>0</v>
       </c>
       <c r="S594" t="n">
-        <v>148133</v>
+        <v>150245</v>
       </c>
       <c r="T594" t="inlineStr">
         <is>
@@ -51103,7 +51775,7 @@
         </is>
       </c>
       <c r="U594" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="595">
@@ -51208,7 +51880,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -51273,7 +51945,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>14082</v>
+        <v>14217</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -51281,7 +51953,7 @@
         </is>
       </c>
       <c r="U596" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="597">
@@ -51297,7 +51969,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -51337,7 +52009,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="n">
@@ -51350,7 +52026,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -51358,7 +52034,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45232</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="598">
@@ -51548,7 +52224,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -51596,7 +52272,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M600" t="inlineStr"/>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N600" t="inlineStr"/>
       <c r="O600" t="inlineStr"/>
       <c r="P600" t="n">
@@ -51609,7 +52289,7 @@
         <v>0</v>
       </c>
       <c r="S600" t="n">
-        <v>18986</v>
+        <v>19080</v>
       </c>
       <c r="T600" t="inlineStr">
         <is>
@@ -51617,7 +52297,7 @@
         </is>
       </c>
       <c r="U600" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="601">
@@ -51718,7 +52398,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -51766,7 +52446,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N602" t="inlineStr"/>
       <c r="O602" t="inlineStr"/>
       <c r="P602" t="n">
@@ -51779,7 +52463,7 @@
         <v>0</v>
       </c>
       <c r="S602" t="n">
-        <v>52027</v>
+        <v>53540</v>
       </c>
       <c r="T602" t="inlineStr">
         <is>
@@ -51787,7 +52471,7 @@
         </is>
       </c>
       <c r="U602" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="603">
@@ -51803,7 +52487,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -51868,7 +52552,7 @@
         <v>0</v>
       </c>
       <c r="S603" t="n">
-        <v>77755</v>
+        <v>80284</v>
       </c>
       <c r="T603" t="inlineStr">
         <is>
@@ -51876,7 +52560,7 @@
         </is>
       </c>
       <c r="U603" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="604">
@@ -52248,7 +52932,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -52296,7 +52980,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M608" t="inlineStr"/>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N608" t="inlineStr"/>
       <c r="O608" t="inlineStr"/>
       <c r="P608" t="n">
@@ -52309,7 +52997,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="T608" t="inlineStr">
         <is>
@@ -52317,7 +53005,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="609">
@@ -52422,7 +53110,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -52470,7 +53158,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M610" t="inlineStr"/>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N610" t="inlineStr"/>
       <c r="O610" t="inlineStr"/>
       <c r="P610" t="n">
@@ -52483,7 +53175,7 @@
         <v>0</v>
       </c>
       <c r="S610" t="n">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="T610" t="inlineStr">
         <is>
@@ -52491,7 +53183,7 @@
         </is>
       </c>
       <c r="U610" s="2" t="n">
-        <v>45224</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="611">
@@ -52859,7 +53551,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -52907,7 +53599,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M615" t="inlineStr"/>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N615" t="inlineStr"/>
       <c r="O615" t="inlineStr"/>
       <c r="P615" t="n">
@@ -52920,7 +53616,7 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
@@ -52928,7 +53624,7 @@
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="616">
@@ -52944,7 +53640,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -52992,7 +53688,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M616" t="inlineStr"/>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="n">
@@ -53005,7 +53705,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
@@ -53013,7 +53713,7 @@
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="617">
@@ -53029,7 +53729,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -53077,7 +53777,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M617" t="inlineStr"/>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N617" t="inlineStr"/>
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="n">
@@ -53090,7 +53794,7 @@
         <v>0</v>
       </c>
       <c r="S617" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T617" t="inlineStr">
         <is>
@@ -53098,7 +53802,7 @@
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="618">
@@ -53114,7 +53818,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -53175,7 +53879,7 @@
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="619">
@@ -53191,7 +53895,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -53219,7 +53923,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M619" t="inlineStr"/>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N619" t="inlineStr"/>
       <c r="O619" t="inlineStr"/>
       <c r="P619" t="n">
@@ -53232,7 +53940,7 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="T619" t="inlineStr">
         <is>
@@ -53240,7 +53948,7 @@
         </is>
       </c>
       <c r="U619" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="620">
@@ -53256,7 +53964,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -53304,7 +54012,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M620" t="inlineStr"/>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N620" t="inlineStr"/>
       <c r="O620" t="inlineStr"/>
       <c r="P620" t="n">
@@ -53317,7 +54029,7 @@
         <v>0</v>
       </c>
       <c r="S620" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="T620" t="inlineStr">
         <is>
@@ -53325,7 +54037,7 @@
         </is>
       </c>
       <c r="U620" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="621">
@@ -53341,7 +54053,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -53389,7 +54101,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M621" t="inlineStr"/>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N621" t="inlineStr"/>
       <c r="O621" t="inlineStr"/>
       <c r="P621" t="n">
@@ -53402,7 +54118,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="T621" t="inlineStr">
         <is>
@@ -53410,7 +54126,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="622">
@@ -53426,7 +54142,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -53474,7 +54190,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N622" t="inlineStr"/>
       <c r="O622" t="inlineStr"/>
       <c r="P622" t="n">
@@ -53487,7 +54207,7 @@
         <v>0</v>
       </c>
       <c r="S622" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="T622" t="inlineStr">
         <is>
@@ -53495,7 +54215,7 @@
         </is>
       </c>
       <c r="U622" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="623">
@@ -53600,7 +54320,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -53648,7 +54368,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M624" t="inlineStr"/>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N624" t="inlineStr"/>
       <c r="O624" t="inlineStr"/>
       <c r="P624" t="n">
@@ -53661,7 +54385,7 @@
         <v>0</v>
       </c>
       <c r="S624" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T624" t="inlineStr">
         <is>
@@ -53669,7 +54393,7 @@
         </is>
       </c>
       <c r="U624" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="625">
@@ -53863,7 +54587,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -53911,7 +54635,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M627" t="inlineStr"/>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N627" t="inlineStr"/>
       <c r="O627" t="inlineStr"/>
       <c r="P627" t="n">
@@ -53924,7 +54652,7 @@
         <v>0</v>
       </c>
       <c r="S627" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T627" t="inlineStr">
         <is>
@@ -53932,7 +54660,7 @@
         </is>
       </c>
       <c r="U627" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="628">
@@ -53948,7 +54676,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -53996,7 +54724,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M628" t="inlineStr"/>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N628" t="inlineStr"/>
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="n">
@@ -54009,7 +54741,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -54017,7 +54749,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="629">
@@ -54033,7 +54765,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -54081,7 +54813,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M629" t="inlineStr"/>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="n">
@@ -54094,7 +54830,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="T629" t="inlineStr">
         <is>
@@ -54102,7 +54838,7 @@
         </is>
       </c>
       <c r="U629" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="630">
@@ -54118,7 +54854,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -54166,7 +54902,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M630" t="inlineStr"/>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N630" t="inlineStr"/>
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="n">
@@ -54179,7 +54919,7 @@
         <v>0</v>
       </c>
       <c r="S630" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T630" t="inlineStr">
         <is>
@@ -54187,7 +54927,7 @@
         </is>
       </c>
       <c r="U630" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="631">
@@ -54203,7 +54943,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -54251,7 +54991,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M631" t="inlineStr"/>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N631" t="inlineStr"/>
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="n">
@@ -54264,7 +55008,7 @@
         <v>0</v>
       </c>
       <c r="S631" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T631" t="inlineStr">
         <is>
@@ -54272,7 +55016,7 @@
         </is>
       </c>
       <c r="U631" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="632">
@@ -54288,7 +55032,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -54336,7 +55080,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M632" t="inlineStr"/>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N632" t="inlineStr"/>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="n">
@@ -54349,7 +55097,7 @@
         <v>0</v>
       </c>
       <c r="S632" t="n">
-        <v>13312</v>
+        <v>13992</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
@@ -54357,7 +55105,7 @@
         </is>
       </c>
       <c r="U632" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="633">
@@ -54539,7 +55287,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
@@ -54592,7 +55340,7 @@
         </is>
       </c>
       <c r="U635" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="636">
@@ -55114,7 +55862,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -55183,7 +55931,7 @@
         </is>
       </c>
       <c r="U642" s="2" t="n">
-        <v>45222</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="643">
@@ -55814,7 +56562,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -55862,7 +56610,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M650" t="inlineStr"/>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N650" t="inlineStr"/>
       <c r="O650" t="inlineStr"/>
       <c r="P650" t="n">
@@ -55875,7 +56627,7 @@
         <v>0</v>
       </c>
       <c r="S650" t="n">
-        <v>1898</v>
+        <v>2288</v>
       </c>
       <c r="T650" t="inlineStr">
         <is>
@@ -55883,7 +56635,7 @@
         </is>
       </c>
       <c r="U650" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="651">
@@ -55899,7 +56651,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -55935,7 +56687,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M651" t="inlineStr"/>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N651" t="inlineStr"/>
       <c r="O651" t="inlineStr"/>
       <c r="P651" t="n">
@@ -55948,7 +56704,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>2577</v>
+        <v>2998</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -55956,7 +56712,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="652">

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U655"/>
+  <dimension ref="A1:U656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1172,8 +1172,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
@@ -1186,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>21908</v>
+        <v>22545</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1194,7 +1202,7 @@
         </is>
       </c>
       <c r="U13" s="2" t="n">
-        <v>45232</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="14">
@@ -1299,7 +1307,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1347,7 +1355,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -1360,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>14515</v>
+        <v>14766</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1368,7 +1380,7 @@
         </is>
       </c>
       <c r="U15" s="2" t="n">
-        <v>45210</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1396,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1432,7 +1444,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
@@ -1449,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4152</v>
+        <v>4230</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1457,7 +1473,7 @@
         </is>
       </c>
       <c r="U16" s="2" t="n">
-        <v>45212</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="17">
@@ -1558,7 +1574,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023/03/02</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1567,14 +1583,42 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1587,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1461</v>
+        <v>1559</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1595,7 +1639,7 @@
         </is>
       </c>
       <c r="U18" s="2" t="n">
-        <v>44987</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="19">
@@ -2886,7 +2930,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2929,7 +2973,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
@@ -2947,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2441</v>
+        <v>2469</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2955,7 +3003,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="35">
@@ -2971,7 +3019,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3020,7 +3068,7 @@
         </is>
       </c>
       <c r="U35" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="36">
@@ -4542,7 +4590,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4607,7 +4655,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45208</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="55">
@@ -4797,7 +4845,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4845,7 +4893,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
@@ -4858,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>5462</v>
+        <v>5547</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -4866,7 +4918,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="58">
@@ -4975,7 +5027,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5023,7 +5075,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>x</t>
@@ -5040,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>28815</v>
+        <v>29188</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5048,7 +5104,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45224</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="60">
@@ -5683,7 +5739,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5756,7 +5812,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="68">
@@ -5772,7 +5828,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5815,8 +5871,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
@@ -5829,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>12542</v>
+        <v>12850</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -5837,7 +5901,7 @@
         </is>
       </c>
       <c r="U68" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="69">
@@ -5853,7 +5917,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5901,7 +5965,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
@@ -5914,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>2159</v>
+        <v>2179</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -5922,7 +5990,7 @@
         </is>
       </c>
       <c r="U69" s="2" t="n">
-        <v>45212</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="70">
@@ -6205,7 +6273,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6253,7 +6321,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
@@ -6266,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>14471</v>
+        <v>14670</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -6274,7 +6346,7 @@
         </is>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="74">
@@ -6476,7 +6548,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6545,7 +6617,7 @@
         </is>
       </c>
       <c r="U76" s="2" t="n">
-        <v>45230</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="77">
@@ -7447,7 +7519,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7495,7 +7567,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -7508,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>79362</v>
+        <v>80398</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7516,7 +7592,7 @@
         </is>
       </c>
       <c r="U87" s="2" t="n">
-        <v>45217</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="88">
@@ -7799,7 +7875,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7847,7 +7923,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -7860,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>7818</v>
+        <v>7918</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -7868,7 +7948,7 @@
         </is>
       </c>
       <c r="U91" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="92">
@@ -8301,7 +8381,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8366,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>18162</v>
+        <v>18239</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8374,7 +8454,7 @@
         </is>
       </c>
       <c r="U97" s="2" t="n">
-        <v>45246</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="98">
@@ -8390,7 +8470,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8433,8 +8513,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -8447,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>61910</v>
+        <v>63630</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -8455,7 +8543,7 @@
         </is>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45239</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="99">
@@ -9264,7 +9352,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9312,7 +9400,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -9325,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>6773</v>
+        <v>6873</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -9333,7 +9425,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45211</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="109">
@@ -9701,7 +9793,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9749,7 +9841,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -9762,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>17802</v>
+        <v>17910</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -9770,7 +9866,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="114">
@@ -10292,7 +10388,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10357,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>18564</v>
+        <v>18708</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -10365,7 +10461,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="121">
@@ -11004,7 +11100,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11052,7 +11148,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -11065,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>16670</v>
+        <v>17027</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -11073,7 +11173,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="129">
@@ -11449,7 +11549,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11514,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>14481</v>
+        <v>14716</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -11522,7 +11622,7 @@
         </is>
       </c>
       <c r="U133" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="134">
@@ -12857,7 +12957,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -12905,7 +13005,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
@@ -12918,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>16110</v>
+        <v>16259</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -12926,7 +13030,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45215</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="150">
@@ -13031,7 +13135,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13079,7 +13183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -13092,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>12043</v>
+        <v>12261</v>
       </c>
       <c r="T151" t="inlineStr">
         <is>
@@ -13100,7 +13208,7 @@
         </is>
       </c>
       <c r="U151" s="2" t="n">
-        <v>45209</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="152">
@@ -13646,7 +13754,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13694,7 +13802,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
@@ -13707,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>6001</v>
+        <v>6139</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -13715,7 +13827,7 @@
         </is>
       </c>
       <c r="U158" s="2" t="n">
-        <v>45210</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="159">
@@ -14253,7 +14365,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -14286,7 +14398,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45246</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="166">
@@ -14925,7 +15037,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -14998,7 +15110,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="174">
@@ -15014,7 +15126,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -15062,7 +15174,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
@@ -15079,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>1530</v>
+        <v>1556</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -15087,7 +15203,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45218</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="175">
@@ -15459,7 +15575,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -15524,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>15336</v>
+        <v>15589</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -15532,7 +15648,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45244</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="180">
@@ -16434,7 +16550,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -16499,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>17611</v>
+        <v>17628</v>
       </c>
       <c r="T190" t="inlineStr">
         <is>
@@ -16507,7 +16623,7 @@
         </is>
       </c>
       <c r="U190" s="2" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="191">
@@ -16523,7 +16639,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -16571,7 +16687,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
@@ -16584,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>18464</v>
+        <v>18700</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -16592,7 +16712,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45209</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="192">
@@ -17231,7 +17351,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -17279,7 +17399,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="n">
@@ -17292,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>2090</v>
+        <v>2116</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -17300,7 +17424,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="200">
@@ -17939,7 +18063,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -18000,7 +18124,7 @@
         </is>
       </c>
       <c r="U207" s="2" t="n">
-        <v>45154</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="208">
@@ -18283,7 +18407,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -18327,7 +18451,11 @@
         </is>
       </c>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="n">
@@ -18340,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>20269</v>
+        <v>20607</v>
       </c>
       <c r="T211" t="inlineStr">
         <is>
@@ -18348,7 +18476,7 @@
         </is>
       </c>
       <c r="U211" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="212">
@@ -20153,7 +20281,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -20201,7 +20329,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="n">
@@ -20214,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>36967</v>
+        <v>37599</v>
       </c>
       <c r="T233" t="inlineStr">
         <is>
@@ -20222,7 +20354,7 @@
         </is>
       </c>
       <c r="U233" s="2" t="n">
-        <v>45212</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="234">
@@ -20327,7 +20459,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20392,7 +20524,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>9143</v>
+        <v>9185</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -20400,7 +20532,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="236">
@@ -21585,7 +21717,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -21650,7 +21782,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>13314</v>
+        <v>13417</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -21658,7 +21790,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="250">
@@ -21763,7 +21895,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -21811,7 +21943,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="n">
@@ -21824,7 +21960,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -21832,7 +21968,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45209</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="252">
@@ -21937,7 +22073,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -22002,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>62876</v>
+        <v>63038</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -22010,7 +22146,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="254">
@@ -22111,7 +22247,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/26</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -22176,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>6319</v>
+        <v>6339</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -22184,7 +22320,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45246</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="256">
@@ -22459,7 +22595,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -22507,7 +22643,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="n">
@@ -22520,7 +22660,7 @@
         <v>0</v>
       </c>
       <c r="S259" t="n">
-        <v>1851</v>
+        <v>1879</v>
       </c>
       <c r="T259" t="inlineStr">
         <is>
@@ -22528,7 +22668,7 @@
         </is>
       </c>
       <c r="U259" s="2" t="n">
-        <v>45224</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="260">
@@ -22807,7 +22947,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -22855,7 +22995,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="n">
@@ -22868,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>92033</v>
+        <v>93338</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -22876,7 +23020,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45216</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="264">
@@ -24737,7 +24881,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -24802,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>12553</v>
+        <v>12682</v>
       </c>
       <c r="T285" t="inlineStr">
         <is>
@@ -24810,7 +24954,7 @@
         </is>
       </c>
       <c r="U285" s="2" t="n">
-        <v>45240</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="286">
@@ -25360,7 +25504,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -25408,7 +25552,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="n">
@@ -25421,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>67659</v>
+        <v>68589</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
@@ -25429,7 +25577,7 @@
         </is>
       </c>
       <c r="U292" s="2" t="n">
-        <v>45224</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="293">
@@ -25619,7 +25767,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -25667,7 +25815,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="n">
@@ -25680,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>4189</v>
+        <v>4230</v>
       </c>
       <c r="T295" t="inlineStr">
         <is>
@@ -25688,7 +25840,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="296">
@@ -26315,7 +26467,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -26358,7 +26510,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr">
         <is>
           <t>x</t>
@@ -26376,7 +26532,7 @@
         <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>1822</v>
+        <v>1840</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -26384,7 +26540,7 @@
         </is>
       </c>
       <c r="U303" s="2" t="n">
-        <v>45240</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="304">
@@ -26400,7 +26556,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -26465,7 +26621,7 @@
         <v>0</v>
       </c>
       <c r="S304" t="n">
-        <v>27613</v>
+        <v>27658</v>
       </c>
       <c r="T304" t="inlineStr">
         <is>
@@ -26473,7 +26629,7 @@
         </is>
       </c>
       <c r="U304" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="305">
@@ -27339,7 +27495,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -27412,7 +27568,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="316">
@@ -27869,7 +28025,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -27917,7 +28073,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="n">
@@ -27930,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>51426</v>
+        <v>52156</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -27938,7 +28098,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45226</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="322">
@@ -29095,7 +29255,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -29164,7 +29324,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="336">
@@ -29180,7 +29340,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -29253,7 +29413,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45236</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="337">
@@ -29981,7 +30141,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -30029,7 +30189,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="n">
@@ -30042,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>2132</v>
+        <v>2170</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -30050,7 +30214,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45224</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="346">
@@ -31583,7 +31747,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -31648,7 +31812,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>9977</v>
+        <v>10005</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -31656,7 +31820,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="364">
@@ -32016,7 +32180,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -32064,7 +32228,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="n">
@@ -32077,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>39059</v>
+        <v>39615</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -32085,7 +32253,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="369">
@@ -32631,7 +32799,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -32644,7 +32812,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="F375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G375" t="inlineStr">
         <is>
           <t>x</t>
@@ -32692,7 +32864,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>2021</v>
+        <v>2043</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -32700,7 +32872,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="376">
@@ -33780,7 +33952,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -33828,7 +34000,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="n">
@@ -33841,7 +34017,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -33849,7 +34025,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45219</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="389">
@@ -33954,7 +34130,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -34002,7 +34178,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M390" t="inlineStr"/>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="n">
@@ -34015,7 +34195,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>3923</v>
+        <v>3979</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -34023,7 +34203,7 @@
         </is>
       </c>
       <c r="U390" s="2" t="n">
-        <v>45225</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="391">
@@ -35006,7 +35186,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -35054,7 +35234,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M402" t="inlineStr"/>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="n">
@@ -35067,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>15875</v>
+        <v>16131</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -35075,7 +35259,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45247</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="403">
@@ -37167,7 +37351,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -37215,7 +37399,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="n">
@@ -37228,7 +37416,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>51091</v>
+        <v>51874</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -37236,7 +37424,7 @@
         </is>
       </c>
       <c r="U427" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="428">
@@ -39065,7 +39253,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -39113,7 +39301,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="n">
@@ -39126,7 +39318,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="T449" t="inlineStr">
         <is>
@@ -39134,7 +39326,7 @@
         </is>
       </c>
       <c r="U449" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="450">
@@ -39150,7 +39342,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2023/10/29</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -39198,7 +39390,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M450" t="inlineStr"/>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="n">
@@ -39211,7 +39407,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>37319</v>
+        <v>37952</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -39219,7 +39415,7 @@
         </is>
       </c>
       <c r="U450" s="2" t="n">
-        <v>45228</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="451">
@@ -39308,7 +39504,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -39381,7 +39577,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="453">
@@ -39575,7 +39771,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -39623,7 +39819,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="n">
@@ -39636,7 +39836,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>40668</v>
+        <v>41259</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -39644,7 +39844,7 @@
         </is>
       </c>
       <c r="U455" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="456">
@@ -39660,7 +39860,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -39708,7 +39908,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="n">
@@ -39721,7 +39925,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>16412</v>
+        <v>16688</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -39729,7 +39933,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="457">
@@ -39923,7 +40127,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -39988,7 +40192,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>27227</v>
+        <v>27963</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -39996,7 +40200,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45233</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="460">
@@ -40101,7 +40305,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -40149,7 +40353,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="n">
@@ -40162,7 +40370,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>13012</v>
+        <v>13147</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -40170,7 +40378,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45215</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="462">
@@ -41691,7 +41899,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -41756,7 +41964,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="n">
-        <v>2974</v>
+        <v>2992</v>
       </c>
       <c r="T479" t="inlineStr">
         <is>
@@ -41764,7 +41972,7 @@
         </is>
       </c>
       <c r="U479" s="2" t="n">
-        <v>45244</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="480">
@@ -43099,7 +43307,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -43164,7 +43372,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>326392</v>
+        <v>327876</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -43172,7 +43380,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="496">
@@ -43366,7 +43574,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -43431,7 +43639,7 @@
         <v>0</v>
       </c>
       <c r="S498" t="n">
-        <v>3483</v>
+        <v>3532</v>
       </c>
       <c r="T498" t="inlineStr">
         <is>
@@ -43439,7 +43647,7 @@
         </is>
       </c>
       <c r="U498" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="499">
@@ -43795,7 +44003,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -43868,7 +44076,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="504">
@@ -45284,7 +45492,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -45332,7 +45540,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="n">
@@ -45345,7 +45557,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -45353,7 +45565,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="521">
@@ -46138,7 +46350,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -46186,7 +46398,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M530" t="inlineStr"/>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="n">
@@ -46199,7 +46415,7 @@
         <v>0</v>
       </c>
       <c r="S530" t="n">
-        <v>17277</v>
+        <v>17326</v>
       </c>
       <c r="T530" t="inlineStr">
         <is>
@@ -46207,7 +46423,7 @@
         </is>
       </c>
       <c r="U530" s="2" t="n">
-        <v>45236</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="531">
@@ -46223,7 +46439,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -46288,7 +46504,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>42895</v>
+        <v>43081</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -46296,7 +46512,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="532">
@@ -46664,7 +46880,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -46729,7 +46945,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>24752</v>
+        <v>24915</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -46737,7 +46953,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="537">
@@ -47178,7 +47394,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -47226,7 +47442,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="n">
@@ -47239,7 +47459,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>3458</v>
+        <v>3509</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -47247,7 +47467,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="543">
@@ -47437,7 +47657,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -47481,7 +47701,11 @@
         </is>
       </c>
       <c r="L545" t="inlineStr"/>
-      <c r="M545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="n">
@@ -47494,7 +47718,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>8025</v>
+        <v>8128</v>
       </c>
       <c r="T545" t="inlineStr">
         <is>
@@ -47502,7 +47726,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="546">
@@ -47518,7 +47742,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -47566,7 +47790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="n">
@@ -47579,7 +47807,7 @@
         <v>0</v>
       </c>
       <c r="S546" t="n">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="T546" t="inlineStr">
         <is>
@@ -47587,7 +47815,7 @@
         </is>
       </c>
       <c r="U546" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="547">
@@ -48048,7 +48276,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -48113,7 +48341,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>15977</v>
+        <v>16022</v>
       </c>
       <c r="T552" t="inlineStr">
         <is>
@@ -48121,7 +48349,7 @@
         </is>
       </c>
       <c r="U552" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="553">
@@ -48307,7 +48535,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -48355,7 +48583,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M555" t="inlineStr"/>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="n">
@@ -48368,7 +48600,7 @@
         <v>0</v>
       </c>
       <c r="S555" t="n">
-        <v>30883</v>
+        <v>31288</v>
       </c>
       <c r="T555" t="inlineStr">
         <is>
@@ -48376,7 +48608,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45237</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="556">
@@ -48392,7 +48624,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -48457,7 +48689,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>5974</v>
+        <v>6008</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -48465,7 +48697,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="557">
@@ -50144,7 +50376,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -50205,7 +50437,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>4908</v>
+        <v>4988</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -50213,7 +50445,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="577">
@@ -50407,7 +50639,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -50455,7 +50687,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M579" t="inlineStr"/>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N579" t="inlineStr"/>
       <c r="O579" t="inlineStr"/>
       <c r="P579" t="n">
@@ -50468,7 +50704,7 @@
         <v>0</v>
       </c>
       <c r="S579" t="n">
-        <v>2592</v>
+        <v>2620</v>
       </c>
       <c r="T579" t="inlineStr">
         <is>
@@ -50476,7 +50712,7 @@
         </is>
       </c>
       <c r="U579" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="580">
@@ -51435,7 +51671,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -51488,7 +51724,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N591" t="inlineStr"/>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O591" t="inlineStr"/>
       <c r="P591" t="n">
         <v>0</v>
@@ -51500,7 +51740,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="n">
-        <v>48323</v>
+        <v>48775</v>
       </c>
       <c r="T591" t="inlineStr">
         <is>
@@ -51508,7 +51748,7 @@
         </is>
       </c>
       <c r="U591" s="2" t="n">
-        <v>45217</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="592">
@@ -52139,7 +52379,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -52187,7 +52427,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M599" t="inlineStr"/>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N599" t="inlineStr"/>
       <c r="O599" t="inlineStr"/>
       <c r="P599" t="n">
@@ -52200,7 +52444,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -52208,7 +52452,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45230</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="600">
@@ -52313,7 +52557,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -52361,7 +52605,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M601" t="inlineStr"/>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="n">
@@ -52374,7 +52622,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>68540</v>
+        <v>69196</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -52382,7 +52630,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45212</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="602">
@@ -55287,7 +55535,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
@@ -55340,7 +55588,7 @@
         </is>
       </c>
       <c r="U635" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="636">
@@ -55510,7 +55758,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -55558,7 +55806,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M638" t="inlineStr"/>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N638" t="inlineStr"/>
       <c r="O638" t="inlineStr"/>
       <c r="P638" t="n">
@@ -55571,7 +55823,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>3146</v>
+        <v>3384</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -55579,7 +55831,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45222</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="639">
@@ -55595,7 +55847,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -55660,7 +55912,7 @@
         <v>0</v>
       </c>
       <c r="S639" t="n">
-        <v>3346</v>
+        <v>3436</v>
       </c>
       <c r="T639" t="inlineStr">
         <is>
@@ -55668,7 +55920,7 @@
         </is>
       </c>
       <c r="U639" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="640">
@@ -55862,7 +56114,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -55910,7 +56162,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M642" t="inlineStr"/>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N642" t="inlineStr"/>
       <c r="O642" t="inlineStr"/>
       <c r="P642" t="n">
@@ -55923,7 +56179,7 @@
         <v>0</v>
       </c>
       <c r="S642" t="n">
-        <v>1134</v>
+        <v>1167</v>
       </c>
       <c r="T642" t="inlineStr">
         <is>
@@ -55931,7 +56187,7 @@
         </is>
       </c>
       <c r="U642" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="643">
@@ -56728,7 +56984,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2023/09/06</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -56771,7 +57027,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M652" t="inlineStr"/>
       <c r="N652" t="inlineStr"/>
       <c r="O652" t="inlineStr"/>
@@ -56785,7 +57045,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>1067</v>
+        <v>1188</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -56793,7 +57053,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45175</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="653">
@@ -56995,6 +57255,83 @@
         <v>45146</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Licancabur</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2023/11/20</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
+      <c r="S656" t="n">
+        <v>19</v>
+      </c>
+      <c r="T656" t="inlineStr">
+        <is>
+          <t>AJ035</t>
+        </is>
+      </c>
+      <c r="U656" s="2" t="n">
+        <v>45250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -784,15 +784,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>2023/12/26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>x</t>
@@ -808,8 +832,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>0</v>
@@ -821,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1760</v>
+        <v>5598</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -829,7 +861,7 @@
         </is>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45215</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="9">
@@ -1141,7 +1173,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1194,7 +1226,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
         <v>0</v>
@@ -1206,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22545</v>
+        <v>22863</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1214,7 +1250,7 @@
         </is>
       </c>
       <c r="U13" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="14">
@@ -3030,7 +3066,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3054,12 +3090,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>0</v>
@@ -3071,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>17790</v>
+        <v>19140</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3079,7 +3139,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45282</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="35">
@@ -3601,7 +3661,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3654,7 +3714,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
         <v>0</v>
@@ -3666,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10634</v>
+        <v>10776</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3674,7 +3738,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45240</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="42">
@@ -4151,7 +4215,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023/04/18</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4169,12 +4233,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -4188,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>16785</v>
+        <v>17603</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4196,7 +4284,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45034</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="48">
@@ -5223,7 +5311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5271,7 +5359,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
@@ -5284,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5292,7 +5384,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45219</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="60">
@@ -5777,7 +5869,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5830,7 +5922,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>0</v>
@@ -5842,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>24158</v>
+        <v>24535</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5850,7 +5946,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45240</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="66">
@@ -7714,7 +7810,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7767,7 +7863,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
         <v>0</v>
@@ -7779,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>80398</v>
+        <v>82101</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7787,7 +7887,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="87">
@@ -10784,7 +10884,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10842,7 +10942,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P120" t="n">
         <v>0</v>
       </c>
@@ -10853,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>11174</v>
+        <v>11258</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -10861,7 +10965,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45271</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="121">
@@ -15164,7 +15268,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -15241,7 +15345,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45268</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="169">
@@ -15540,7 +15644,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -15609,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>44164</v>
+        <v>44435</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
@@ -15617,7 +15721,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="173">
@@ -18136,7 +18240,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -18209,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>32852</v>
+        <v>32892</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -18217,7 +18321,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="201">
@@ -22601,7 +22705,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -22654,7 +22758,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="n">
         <v>0</v>
@@ -22666,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>23676</v>
+        <v>23913</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -22674,7 +22782,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45240</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="250">
@@ -23418,7 +23526,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -23491,7 +23599,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45251</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="259">
@@ -27353,7 +27461,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -27406,7 +27514,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="n">
         <v>0</v>
@@ -27418,7 +27530,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>15581</v>
+        <v>15790</v>
       </c>
       <c r="T301" t="inlineStr">
         <is>
@@ -27426,7 +27538,7 @@
         </is>
       </c>
       <c r="U301" s="2" t="n">
-        <v>45243</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="302">
@@ -29072,7 +29184,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -29125,7 +29237,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="n">
         <v>0</v>
@@ -29137,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="S320" t="n">
-        <v>52156</v>
+        <v>52886</v>
       </c>
       <c r="T320" t="inlineStr">
         <is>
@@ -29145,7 +29261,7 @@
         </is>
       </c>
       <c r="U320" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="321">
@@ -32942,7 +33058,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -33011,7 +33127,7 @@
         <v>0</v>
       </c>
       <c r="S362" t="n">
-        <v>10171</v>
+        <v>10199</v>
       </c>
       <c r="T362" t="inlineStr">
         <is>
@@ -33019,7 +33135,7 @@
         </is>
       </c>
       <c r="U362" s="2" t="n">
-        <v>45275</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="363">
@@ -35158,7 +35274,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -35235,7 +35351,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45273</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="387">
@@ -40881,7 +40997,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -40950,7 +41066,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>38367</v>
+        <v>38584</v>
       </c>
       <c r="T449" t="inlineStr">
         <is>
@@ -40958,7 +41074,7 @@
         </is>
       </c>
       <c r="U449" s="2" t="n">
-        <v>45280</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="450">
@@ -41326,7 +41442,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -41391,7 +41507,7 @@
         <v>0</v>
       </c>
       <c r="S454" t="n">
-        <v>41259</v>
+        <v>41850</v>
       </c>
       <c r="T454" t="inlineStr">
         <is>
@@ -41399,7 +41515,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="455">
@@ -41690,7 +41806,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -41767,7 +41883,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45281</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="459">
@@ -41876,7 +41992,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -41945,7 +42061,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>13344</v>
+        <v>13378</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -41953,7 +42069,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="461">
@@ -43910,7 +44026,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
@@ -43983,7 +44099,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45273</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="483">
@@ -43999,7 +44115,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -44052,7 +44168,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N483" t="inlineStr"/>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="n">
         <v>0</v>
@@ -44064,7 +44184,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>2629</v>
+        <v>2664</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -44072,7 +44192,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45259</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="484">
@@ -44088,7 +44208,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -44137,7 +44257,11 @@
         </is>
       </c>
       <c r="M484" t="inlineStr"/>
-      <c r="N484" t="inlineStr"/>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="n">
         <v>0</v>
@@ -44149,7 +44273,7 @@
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>27319</v>
+        <v>27538</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -44157,7 +44281,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45257</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="485">
@@ -47327,7 +47451,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -47380,7 +47504,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N519" t="inlineStr"/>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="n">
         <v>0</v>
@@ -47392,7 +47520,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -47400,7 +47528,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="520">
@@ -47881,7 +48009,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -47934,7 +48062,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N525" t="inlineStr"/>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
         <v>0</v>
@@ -47946,7 +48078,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -47954,7 +48086,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45246</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="526">
@@ -48019,7 +48151,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -48100,7 +48232,7 @@
         </is>
       </c>
       <c r="U527" s="2" t="n">
-        <v>45266</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="528">
@@ -49321,7 +49453,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -49374,7 +49506,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N541" t="inlineStr"/>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O541" t="inlineStr"/>
       <c r="P541" t="n">
         <v>0</v>
@@ -49386,7 +49522,7 @@
         <v>0</v>
       </c>
       <c r="S541" t="n">
-        <v>3509</v>
+        <v>3560</v>
       </c>
       <c r="T541" t="inlineStr">
         <is>
@@ -49394,7 +49530,7 @@
         </is>
       </c>
       <c r="U541" s="2" t="n">
-        <v>45275</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="542">
@@ -49503,7 +49639,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -49551,8 +49687,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
-      <c r="N543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
         <v>0</v>
@@ -49564,7 +49708,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>21406</v>
+        <v>22256</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -49572,7 +49716,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45247</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="544">
@@ -49588,7 +49732,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -49637,7 +49781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N544" t="inlineStr"/>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="n">
         <v>0</v>
@@ -49649,7 +49797,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>8128</v>
+        <v>8231</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -49657,7 +49805,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="545">
@@ -50231,7 +50379,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -50300,7 +50448,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>16112</v>
+        <v>16157</v>
       </c>
       <c r="T551" t="inlineStr">
         <is>
@@ -50308,7 +50456,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="552">
@@ -51978,7 +52126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -52027,7 +52175,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N570" t="inlineStr"/>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O570" t="inlineStr"/>
       <c r="P570" t="n">
         <v>0</v>
@@ -52039,7 +52191,7 @@
         <v>0</v>
       </c>
       <c r="S570" t="n">
-        <v>15515</v>
+        <v>15725</v>
       </c>
       <c r="T570" t="inlineStr">
         <is>
@@ -52047,7 +52199,7 @@
         </is>
       </c>
       <c r="U570" s="2" t="n">
-        <v>45240</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="571">
@@ -53499,7 +53651,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -53568,7 +53720,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>156828</v>
+        <v>157798</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -53576,7 +53728,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45279</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="588">
@@ -54057,7 +54209,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -54126,7 +54278,7 @@
         <v>0</v>
       </c>
       <c r="S593" t="n">
-        <v>151700</v>
+        <v>152373</v>
       </c>
       <c r="T593" t="inlineStr">
         <is>
@@ -54134,7 +54286,7 @@
         </is>
       </c>
       <c r="U593" s="2" t="n">
-        <v>45279</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="594">
@@ -55533,7 +55685,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -55586,7 +55738,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N609" t="inlineStr"/>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O609" t="inlineStr"/>
       <c r="P609" t="n">
         <v>0</v>
@@ -55598,7 +55754,7 @@
         <v>0</v>
       </c>
       <c r="S609" t="n">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="T609" t="inlineStr">
         <is>
@@ -55606,7 +55762,7 @@
         </is>
       </c>
       <c r="U609" s="2" t="n">
-        <v>45246</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="610">
@@ -57810,7 +57966,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
@@ -57867,7 +58023,7 @@
         </is>
       </c>
       <c r="U634" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="635">
@@ -58158,7 +58314,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -58216,7 +58372,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O638" t="inlineStr"/>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P638" t="n">
         <v>0</v>
       </c>
@@ -58227,7 +58387,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>3682</v>
+        <v>3838</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -58235,7 +58395,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="639">

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="U7" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="8">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2161,7 +2161,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2280</v>
+        <v>2334</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2180,7 +2184,7 @@
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45280</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="24">
@@ -2196,7 +2200,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2269,7 +2273,7 @@
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="25">
@@ -4126,7 +4130,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4179,7 +4183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
         <v>0</v>
@@ -4191,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>19191</v>
+        <v>19451</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4199,7 +4207,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="47">
@@ -4672,7 +4680,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4725,7 +4733,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>0</v>
@@ -4737,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2058</v>
+        <v>2072</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4745,7 +4757,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45264</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="53">
@@ -5962,7 +5974,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/06</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6039,7 +6051,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45275</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="67">
@@ -8182,7 +8194,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8251,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>8010</v>
+        <v>7976</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8259,7 +8271,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45278</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="91">
@@ -8793,7 +8805,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8846,7 +8858,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
         <v>0</v>
@@ -8858,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>63630</v>
+        <v>64517</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8866,7 +8882,7 @@
         </is>
       </c>
       <c r="U97" s="2" t="n">
-        <v>45252</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="98">
@@ -9804,7 +9820,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9877,7 +9893,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="109">
@@ -10512,7 +10528,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -10570,7 +10586,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
@@ -10581,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>1817</v>
+        <v>1839</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -10589,7 +10609,7 @@
         </is>
       </c>
       <c r="U116" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="117">
@@ -10884,7 +10904,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10965,7 +10985,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="121">
@@ -12004,7 +12024,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12062,7 +12082,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
@@ -12073,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>15118</v>
+        <v>15237</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -12081,7 +12105,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="133">
@@ -12376,7 +12400,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12434,7 +12458,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
@@ -12445,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -12453,7 +12481,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="137">
@@ -13565,7 +13593,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13623,7 +13651,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
@@ -13634,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>45838</v>
+        <v>46472</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -13642,7 +13674,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="150">
@@ -14940,7 +14972,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -14973,7 +15005,7 @@
         </is>
       </c>
       <c r="U164" s="2" t="n">
-        <v>45250</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="165">
@@ -15551,7 +15583,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -15609,7 +15641,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P171" t="n">
         <v>0</v>
       </c>
@@ -15620,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>11435</v>
+        <v>11467</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -15628,7 +15664,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="172">
@@ -17132,7 +17168,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -17209,7 +17245,7 @@
         </is>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="189">
@@ -17779,7 +17815,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -17837,7 +17873,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P195" t="n">
         <v>0</v>
       </c>
@@ -17848,7 +17888,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>57733</v>
+        <v>58277</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -17856,7 +17896,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="196">
@@ -19445,7 +19485,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -19522,7 +19562,7 @@
         </is>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45266</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="214">
@@ -20238,7 +20278,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -20296,7 +20336,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr"/>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P222" t="n">
         <v>0</v>
       </c>
@@ -20307,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>6317</v>
+        <v>6394</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -20315,7 +20359,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45274</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="223">
@@ -22236,7 +22280,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -22294,7 +22338,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O244" t="inlineStr"/>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P244" t="n">
         <v>0</v>
       </c>
@@ -22305,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>24091</v>
+        <v>24149</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -22313,7 +22361,7 @@
         </is>
       </c>
       <c r="U244" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="245">
@@ -22705,7 +22753,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -22763,7 +22811,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O249" t="inlineStr"/>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P249" t="n">
         <v>0</v>
       </c>
@@ -22774,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>23913</v>
+        <v>24168</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -22782,7 +22834,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="250">
@@ -23433,7 +23485,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -23510,7 +23562,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="258">
@@ -23983,7 +24035,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/08/01</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -24016,11 +24068,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="n">
         <v>0</v>
@@ -24032,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>45142</v>
+        <v>49091</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -24040,7 +24112,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45139</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="264">
@@ -25904,7 +25976,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -25962,7 +26034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P284" t="n">
         <v>0</v>
       </c>
@@ -25973,7 +26049,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>12794</v>
+        <v>12882</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -25981,7 +26057,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="285">
@@ -27182,7 +27258,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -27259,7 +27335,7 @@
         </is>
       </c>
       <c r="U298" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="299">
@@ -27647,7 +27723,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -27716,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>27915</v>
+        <v>27960</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -27724,7 +27800,7 @@
         </is>
       </c>
       <c r="U303" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="304">
@@ -29463,7 +29539,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -29516,7 +29592,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="n">
         <v>0</v>
@@ -29528,7 +29608,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -29536,7 +29616,7 @@
         </is>
       </c>
       <c r="U323" s="2" t="n">
-        <v>45260</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="324">
@@ -30830,7 +30910,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -30899,7 +30979,7 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>11094</v>
+        <v>11092</v>
       </c>
       <c r="T338" t="inlineStr">
         <is>
@@ -30907,7 +30987,7 @@
         </is>
       </c>
       <c r="U338" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="339">
@@ -32965,7 +33045,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -33023,7 +33103,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O361" t="inlineStr"/>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P361" t="n">
         <v>0</v>
       </c>
@@ -33034,7 +33118,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>39430</v>
+        <v>39456</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -33042,7 +33126,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="362">
@@ -33325,7 +33409,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -33383,7 +33467,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O365" t="inlineStr"/>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P365" t="n">
         <v>0</v>
       </c>
@@ -33394,7 +33482,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>2290</v>
+        <v>2323</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -33402,7 +33490,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="366">
@@ -34437,7 +34525,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -34495,7 +34583,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O377" t="inlineStr"/>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P377" t="n">
         <v>0</v>
       </c>
@@ -34506,7 +34598,7 @@
         <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>20588</v>
+        <v>20874</v>
       </c>
       <c r="T377" t="inlineStr">
         <is>
@@ -34514,7 +34606,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="378">
@@ -35181,7 +35273,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -35258,7 +35350,7 @@
         </is>
       </c>
       <c r="U385" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="386">
@@ -35739,7 +35831,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35797,7 +35889,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O391" t="inlineStr"/>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P391" t="n">
         <v>0</v>
       </c>
@@ -35808,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>67002</v>
+        <v>67665</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -35816,7 +35912,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="392">
@@ -36657,7 +36753,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/11/19</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -36710,7 +36806,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N401" t="inlineStr"/>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
         <v>0</v>
@@ -36722,7 +36822,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>16131</v>
+        <v>16896</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -36730,7 +36830,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45249</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="402">
@@ -37304,7 +37404,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -37362,7 +37462,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O408" t="inlineStr"/>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P408" t="n">
         <v>0</v>
       </c>
@@ -37373,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>14199</v>
+        <v>14237</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -37381,7 +37485,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="409">
@@ -40718,7 +40822,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -40776,7 +40880,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O446" t="inlineStr"/>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P446" t="n">
         <v>0</v>
       </c>
@@ -40787,7 +40895,7 @@
         <v>0</v>
       </c>
       <c r="S446" t="n">
-        <v>8089</v>
+        <v>8137</v>
       </c>
       <c r="T446" t="inlineStr">
         <is>
@@ -40795,7 +40903,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="447">
@@ -41806,7 +41914,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -41864,7 +41972,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O458" t="inlineStr"/>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P458" t="n">
         <v>0</v>
       </c>
@@ -41875,7 +41987,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>28788</v>
+        <v>28874</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -41883,7 +41995,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="459">
@@ -42461,7 +42573,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -42538,7 +42650,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45274</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="466">
@@ -42554,7 +42666,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -42612,7 +42724,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O466" t="inlineStr"/>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P466" t="n">
         <v>0</v>
       </c>
@@ -42623,7 +42739,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="n">
-        <v>9468</v>
+        <v>9614</v>
       </c>
       <c r="T466" t="inlineStr">
         <is>
@@ -42631,7 +42747,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="467">
@@ -43391,7 +43507,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -43449,7 +43565,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O475" t="inlineStr"/>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P475" t="n">
         <v>0</v>
       </c>
@@ -43460,7 +43580,7 @@
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>3903</v>
+        <v>3909</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
@@ -43468,7 +43588,7 @@
         </is>
       </c>
       <c r="U475" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="476">
@@ -43484,7 +43604,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -43542,7 +43662,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O476" t="inlineStr"/>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P476" t="n">
         <v>0</v>
       </c>
@@ -43553,7 +43677,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>23106</v>
+        <v>23307</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -43561,7 +43685,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="477">
@@ -44669,7 +44793,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -44746,7 +44870,7 @@
         </is>
       </c>
       <c r="U489" s="2" t="n">
-        <v>45279</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="490">
@@ -44762,7 +44886,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -44839,7 +44963,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="491">
@@ -45041,7 +45165,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -45110,7 +45234,7 @@
         <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>7431</v>
+        <v>7490</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
@@ -45118,7 +45242,7 @@
         </is>
       </c>
       <c r="U493" s="2" t="n">
-        <v>45268</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="494">
@@ -45227,7 +45351,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -45285,7 +45409,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P495" t="n">
         <v>0</v>
       </c>
@@ -45296,7 +45424,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>17055</v>
+        <v>17147</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -45304,7 +45432,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="496">
@@ -48151,7 +48279,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -48224,7 +48352,7 @@
         <v>0</v>
       </c>
       <c r="S527" t="n">
-        <v>30158</v>
+        <v>30315</v>
       </c>
       <c r="T527" t="inlineStr">
         <is>
@@ -48232,7 +48360,7 @@
         </is>
       </c>
       <c r="U527" s="2" t="n">
-        <v>45286</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="528">
@@ -48988,7 +49116,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -49065,7 +49193,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="537">
@@ -49081,7 +49209,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -49158,7 +49286,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="538">
@@ -49546,7 +49674,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -49623,7 +49751,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="543">
@@ -50743,7 +50871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -50812,7 +50940,7 @@
         <v>0</v>
       </c>
       <c r="S555" t="n">
-        <v>6060</v>
+        <v>6116</v>
       </c>
       <c r="T555" t="inlineStr">
         <is>
@@ -50820,7 +50948,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="556">
@@ -52951,7 +53079,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -53028,7 +53156,7 @@
         </is>
       </c>
       <c r="U579" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="580">
@@ -53558,7 +53686,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -53635,7 +53763,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="587">
@@ -53930,7 +54058,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -53988,7 +54116,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O590" t="inlineStr"/>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P590" t="n">
         <v>0</v>
       </c>
@@ -53999,7 +54131,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>48775</v>
+        <v>49227</v>
       </c>
       <c r="T590" t="inlineStr">
         <is>
@@ -54007,7 +54139,7 @@
         </is>
       </c>
       <c r="U590" s="2" t="n">
-        <v>45252</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="591">
@@ -55317,7 +55449,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -55375,7 +55507,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O605" t="inlineStr"/>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P605" t="n">
         <v>0</v>
       </c>
@@ -55386,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="S605" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T605" t="inlineStr">
         <is>
@@ -55394,7 +55530,7 @@
         </is>
       </c>
       <c r="U605" s="2" t="n">
-        <v>45261</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="606">
@@ -55410,7 +55546,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -55468,7 +55604,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P606" t="n">
         <v>0</v>
       </c>
@@ -55479,7 +55619,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>56287</v>
+        <v>56762</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -55487,7 +55627,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="607">
@@ -57885,7 +58025,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -57950,7 +58090,7 @@
         </is>
       </c>
       <c r="U633" s="2" t="n">
-        <v>45224</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="634">
@@ -57966,7 +58106,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D634" t="inlineStr"/>
@@ -58004,7 +58144,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O634" t="inlineStr"/>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P634" t="n">
         <v>0</v>
       </c>
@@ -58015,7 +58159,7 @@
         <v>0</v>
       </c>
       <c r="S634" t="n">
-        <v>4178</v>
+        <v>4585</v>
       </c>
       <c r="T634" t="inlineStr">
         <is>
@@ -58023,7 +58167,7 @@
         </is>
       </c>
       <c r="U634" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="635">
@@ -58597,7 +58741,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -58650,7 +58794,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N641" t="inlineStr"/>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O641" t="inlineStr"/>
       <c r="P641" t="n">
         <v>0</v>
@@ -58662,7 +58810,7 @@
         <v>0</v>
       </c>
       <c r="S641" t="n">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="T641" t="inlineStr">
         <is>
@@ -58670,7 +58818,7 @@
         </is>
       </c>
       <c r="U641" s="2" t="n">
-        <v>45265</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="642">
@@ -59758,7 +59906,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -59800,7 +59948,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O654" t="inlineStr"/>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P654" t="n">
         <v>0</v>
       </c>
@@ -59811,7 +59963,7 @@
         <v>0</v>
       </c>
       <c r="S654" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T654" t="inlineStr">
         <is>
@@ -59819,7 +59971,7 @@
         </is>
       </c>
       <c r="U654" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="655">

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U713"/>
+  <dimension ref="A1:U718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6272</v>
+        <v>7603</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="9">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1336,7 +1336,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17021</v>
+        <v>17279</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1355,7 +1359,7 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>45278</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="15">
@@ -4493,7 +4497,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4566,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>12082</v>
+        <v>12204</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4574,7 +4578,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="50">
@@ -4590,7 +4594,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4667,7 +4671,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45273</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="51">
@@ -5059,7 +5063,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5113,7 +5117,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>13234</v>
+        <v>13446</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5132,7 +5140,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="56">
@@ -5524,7 +5532,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5582,7 +5590,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>12550</v>
+        <v>12717</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5601,7 +5613,7 @@
         </is>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="61">
@@ -5617,7 +5629,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5675,7 +5687,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>58444</v>
+        <v>59245</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5694,7 +5710,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45273</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="62">
@@ -5900,7 +5916,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5958,7 +5974,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -5969,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>23420</v>
+        <v>23665</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5977,7 +5997,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45272</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="65">
@@ -7610,7 +7630,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7668,7 +7688,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -7679,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>63401</v>
+        <v>64521</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7687,7 +7711,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="83">
@@ -7703,7 +7727,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7761,7 +7785,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
@@ -7772,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>41146</v>
+        <v>41851</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7780,7 +7808,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="84">
@@ -8378,7 +8406,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8451,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>8113</v>
+        <v>8194</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8459,7 +8487,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45302</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="91">
@@ -8908,7 +8936,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8966,7 +8994,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
@@ -8977,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>18418</v>
+        <v>18598</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8985,7 +9017,7 @@
         </is>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45280</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="97">
@@ -9385,7 +9417,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -9443,7 +9475,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
@@ -9454,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>40222</v>
+        <v>40872</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -9462,7 +9498,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="102">
@@ -9769,7 +9805,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -9827,7 +9863,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P105" t="n">
         <v>0</v>
       </c>
@@ -9838,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>25372</v>
+        <v>25601</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -9846,7 +9886,7 @@
         </is>
       </c>
       <c r="U105" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="106">
@@ -10436,7 +10476,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -10509,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>18428</v>
+        <v>18601</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -10517,7 +10557,7 @@
         </is>
       </c>
       <c r="U112" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="113">
@@ -10533,7 +10573,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -10578,7 +10618,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45267</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="114">
@@ -10691,7 +10731,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -10749,7 +10789,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
@@ -10760,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>11194</v>
+        <v>11431</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -10768,7 +10812,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="116">
@@ -11172,7 +11216,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11253,7 +11297,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="121">
@@ -11269,7 +11313,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11327,7 +11371,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -11338,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>17374</v>
+        <v>17577</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -11346,7 +11394,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="122">
@@ -11653,7 +11701,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -11711,7 +11759,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P125" t="n">
         <v>0</v>
       </c>
@@ -11722,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>19445</v>
+        <v>19906</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -11730,7 +11782,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="126">
@@ -11940,7 +11992,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11994,7 +12046,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
@@ -12005,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -12013,7 +12069,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45272</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="129">
@@ -13096,7 +13152,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13130,7 +13186,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>x</t>
@@ -13141,8 +13201,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P140" t="n">
         <v>0</v>
       </c>
@@ -13153,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>6546</v>
+        <v>6753</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
@@ -13161,7 +13229,7 @@
         </is>
       </c>
       <c r="U140" s="2" t="n">
-        <v>45273</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="141">
@@ -13371,7 +13439,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -13429,7 +13497,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
@@ -13440,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>2417</v>
+        <v>2440</v>
       </c>
       <c r="T143" t="inlineStr">
         <is>
@@ -13448,7 +13520,7 @@
         </is>
       </c>
       <c r="U143" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="144">
@@ -13751,7 +13823,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13804,7 +13876,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="n">
         <v>0</v>
@@ -13816,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>15162</v>
+        <v>15376</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -13824,7 +13900,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45265</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="148">
@@ -14515,7 +14591,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -14573,7 +14649,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P155" t="n">
         <v>0</v>
       </c>
@@ -14584,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>1720</v>
+        <v>1746</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -14592,7 +14672,7 @@
         </is>
       </c>
       <c r="U155" s="2" t="n">
-        <v>45281</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="156">
@@ -14883,7 +14963,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -14936,7 +15016,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
         <v>0</v>
@@ -14948,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>60157</v>
+        <v>60891</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -14956,7 +15040,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45257</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="160">
@@ -15166,7 +15250,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -15239,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>71169</v>
+        <v>71415</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -15247,7 +15331,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="163">
@@ -15506,7 +15590,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -15564,7 +15648,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
@@ -15575,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>54095</v>
+        <v>54827</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -15583,7 +15671,7 @@
         </is>
       </c>
       <c r="U166" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="167">
@@ -15890,7 +15978,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -15971,7 +16059,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="171">
@@ -16084,7 +16172,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -16165,7 +16253,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="173">
@@ -16371,7 +16459,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -16444,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>13157</v>
+        <v>13193</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -16452,7 +16540,7 @@
         </is>
       </c>
       <c r="U175" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="176">
@@ -16759,7 +16847,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -16812,7 +16900,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="n">
         <v>0</v>
@@ -16824,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -16832,7 +16924,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45258</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="180">
@@ -17907,7 +17999,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -17965,7 +18057,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
@@ -17976,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>24513</v>
+        <v>24657</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -17984,7 +18080,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="192">
@@ -18481,7 +18577,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -18554,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>18255</v>
+        <v>18379</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -18562,7 +18658,7 @@
         </is>
       </c>
       <c r="U197" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="198">
@@ -18578,7 +18674,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -18631,7 +18727,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="n">
         <v>0</v>
@@ -18643,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -18651,7 +18751,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45252</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="199">
@@ -18764,7 +18864,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -18837,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>33290</v>
+        <v>33488</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -18845,7 +18945,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="201">
@@ -19249,7 +19349,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -19303,7 +19403,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P205" t="n">
         <v>0</v>
       </c>
@@ -19314,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -19322,7 +19426,7 @@
         </is>
       </c>
       <c r="U205" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="206">
@@ -19726,7 +19830,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -19780,7 +19884,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P210" t="n">
         <v>0</v>
       </c>
@@ -19791,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>20958</v>
+        <v>21297</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -19799,7 +19907,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45282</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="211">
@@ -20300,7 +20408,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -20358,7 +20466,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P216" t="n">
         <v>0</v>
       </c>
@@ -20369,7 +20481,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>43033</v>
+        <v>43516</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -20377,7 +20489,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="217">
@@ -20490,7 +20602,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -20571,7 +20683,7 @@
         </is>
       </c>
       <c r="U218" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="219">
@@ -20927,7 +21039,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21000,7 +21112,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>53128</v>
+        <v>53464</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -21008,7 +21120,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="224">
@@ -21934,7 +22046,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -22007,7 +22119,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>9440</v>
+        <v>9472</v>
       </c>
       <c r="T234" t="inlineStr">
         <is>
@@ -22015,7 +22127,7 @@
         </is>
       </c>
       <c r="U234" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="235">
@@ -23292,7 +23404,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -23350,7 +23462,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P248" t="n">
         <v>0</v>
       </c>
@@ -23361,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>13517</v>
+        <v>13613</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -23369,7 +23485,7 @@
         </is>
       </c>
       <c r="U248" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="249">
@@ -24238,7 +24354,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -24292,7 +24408,11 @@
         </is>
       </c>
       <c r="N258" t="inlineStr"/>
-      <c r="O258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P258" t="n">
         <v>0</v>
       </c>
@@ -24303,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -24311,7 +24431,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="259">
@@ -24614,7 +24734,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -24672,7 +24792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P262" t="n">
         <v>0</v>
       </c>
@@ -24683,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>94648</v>
+        <v>95969</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
@@ -24691,7 +24815,7 @@
         </is>
       </c>
       <c r="U262" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="263">
@@ -25572,7 +25696,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -25630,7 +25754,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P272" t="n">
         <v>0</v>
       </c>
@@ -25641,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>7689</v>
+        <v>7790</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -25649,7 +25777,7 @@
         </is>
       </c>
       <c r="U272" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="273">
@@ -25859,7 +25987,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -25917,7 +26045,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P275" t="n">
         <v>0</v>
       </c>
@@ -25928,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>1669</v>
+        <v>1692</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -25936,7 +26068,7 @@
         </is>
       </c>
       <c r="U275" s="2" t="n">
-        <v>45274</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="276">
@@ -26142,7 +26274,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -26200,7 +26332,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P278" t="n">
         <v>0</v>
       </c>
@@ -26211,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="S278" t="n">
-        <v>24324</v>
+        <v>24726</v>
       </c>
       <c r="T278" t="inlineStr">
         <is>
@@ -26219,7 +26355,7 @@
         </is>
       </c>
       <c r="U278" s="2" t="n">
-        <v>45273</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="279">
@@ -26611,7 +26747,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -26692,7 +26828,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="284">
@@ -26708,7 +26844,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -26781,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>12882</v>
+        <v>13011</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -26789,7 +26925,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45300</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="285">
@@ -26902,7 +27038,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/20</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -26983,7 +27119,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45306</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="287">
@@ -27387,7 +27523,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -27445,7 +27581,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O291" t="inlineStr"/>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P291" t="n">
         <v>0</v>
       </c>
@@ -27456,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>69523</v>
+        <v>70470</v>
       </c>
       <c r="T291" t="inlineStr">
         <is>
@@ -27464,7 +27604,7 @@
         </is>
       </c>
       <c r="U291" s="2" t="n">
-        <v>45282</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="292">
@@ -28527,7 +28667,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -28600,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="S303" t="n">
-        <v>28085</v>
+        <v>28262</v>
       </c>
       <c r="T303" t="inlineStr">
         <is>
@@ -28608,7 +28748,7 @@
         </is>
       </c>
       <c r="U303" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="304">
@@ -29012,7 +29152,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -29070,7 +29210,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O308" t="inlineStr"/>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P308" t="n">
         <v>0</v>
       </c>
@@ -29081,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>1545</v>
+        <v>1567</v>
       </c>
       <c r="T308" t="inlineStr">
         <is>
@@ -29089,7 +29233,7 @@
         </is>
       </c>
       <c r="U308" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="309">
@@ -29198,7 +29342,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -29256,7 +29400,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O310" t="inlineStr"/>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P310" t="n">
         <v>0</v>
       </c>
@@ -29267,7 +29415,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="n">
-        <v>34260</v>
+        <v>34779</v>
       </c>
       <c r="T310" t="inlineStr">
         <is>
@@ -29275,7 +29423,7 @@
         </is>
       </c>
       <c r="U310" s="2" t="n">
-        <v>45275</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="311">
@@ -29291,7 +29439,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -29324,7 +29472,7 @@
         </is>
       </c>
       <c r="U311" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="312">
@@ -29340,7 +29488,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -29413,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>15396</v>
+        <v>15511</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -29421,7 +29569,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45301</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="313">
@@ -30403,7 +30551,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -30461,7 +30609,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O323" t="inlineStr"/>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P323" t="n">
         <v>0</v>
       </c>
@@ -30472,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>1050</v>
+        <v>1072</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -30480,7 +30632,7 @@
         </is>
       </c>
       <c r="U323" s="2" t="n">
-        <v>45294</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="324">
@@ -30593,7 +30745,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -30651,7 +30803,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P325" t="n">
         <v>0</v>
       </c>
@@ -30662,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>12398</v>
+        <v>12543</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -30670,7 +30826,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45275</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="326">
@@ -32392,7 +32548,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -32450,7 +32606,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P344" t="n">
         <v>0</v>
       </c>
@@ -32461,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>2208</v>
+        <v>2246</v>
       </c>
       <c r="T344" t="inlineStr">
         <is>
@@ -32469,7 +32629,7 @@
         </is>
       </c>
       <c r="U344" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="345">
@@ -33839,7 +33999,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -33912,7 +34072,7 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>31738</v>
+        <v>32002</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -33920,7 +34080,7 @@
         </is>
       </c>
       <c r="U359" s="2" t="n">
-        <v>45302</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="360">
@@ -34130,7 +34290,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -34188,7 +34348,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O362" t="inlineStr"/>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P362" t="n">
         <v>0</v>
       </c>
@@ -34199,7 +34363,7 @@
         <v>0</v>
       </c>
       <c r="S362" t="n">
-        <v>10199</v>
+        <v>10294</v>
       </c>
       <c r="T362" t="inlineStr">
         <is>
@@ -34207,7 +34371,7 @@
         </is>
       </c>
       <c r="U362" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="363">
@@ -34704,7 +34868,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -34785,7 +34949,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="369">
@@ -35379,7 +35543,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2024/01/07</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -35452,7 +35616,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -35460,7 +35624,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45298</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="376">
@@ -36252,7 +36416,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -36333,7 +36497,7 @@
         </is>
       </c>
       <c r="U384" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="385">
@@ -36834,7 +36998,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -36907,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>67665</v>
+        <v>67826</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -36915,7 +37079,7 @@
         </is>
       </c>
       <c r="U390" s="2" t="n">
-        <v>45296</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="391">
@@ -37497,7 +37661,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -37550,8 +37714,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N397" t="inlineStr"/>
-      <c r="O397" t="inlineStr"/>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P397" t="n">
         <v>0</v>
       </c>
@@ -37562,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="S397" t="n">
-        <v>29643</v>
+        <v>30163</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -37570,7 +37742,7 @@
         </is>
       </c>
       <c r="U397" s="2" t="n">
-        <v>45257</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="398">
@@ -37776,7 +37948,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -37834,7 +38006,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O400" t="inlineStr"/>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P400" t="n">
         <v>0</v>
       </c>
@@ -37845,7 +38021,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>16896</v>
+        <v>17335</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -37853,7 +38029,7 @@
         </is>
       </c>
       <c r="U400" s="2" t="n">
-        <v>45291</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="401">
@@ -39563,7 +39739,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -39621,7 +39797,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O419" t="inlineStr"/>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P419" t="n">
         <v>0</v>
       </c>
@@ -39632,7 +39812,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>7008</v>
+        <v>7133</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -39640,7 +39820,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="420">
@@ -39656,7 +39836,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -39729,7 +39909,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>13815</v>
+        <v>13878</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -39737,7 +39917,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="421">
@@ -40736,7 +40916,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -40809,7 +40989,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>1745</v>
+        <v>1404</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -40817,7 +40997,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="433">
@@ -41213,7 +41393,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -41271,7 +41451,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O437" t="inlineStr"/>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P437" t="n">
         <v>0</v>
       </c>
@@ -41282,7 +41466,7 @@
         <v>0</v>
       </c>
       <c r="S437" t="n">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -41290,7 +41474,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="438">
@@ -41306,7 +41490,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -41364,7 +41548,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O438" t="inlineStr"/>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P438" t="n">
         <v>0</v>
       </c>
@@ -41375,7 +41563,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>2919</v>
+        <v>2968</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -41383,7 +41571,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="439">
@@ -41779,7 +41967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -41837,7 +42025,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O443" t="inlineStr"/>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P443" t="n">
         <v>0</v>
       </c>
@@ -41848,7 +42040,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>13793</v>
+        <v>13911</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -41856,7 +42048,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="444">
@@ -41969,7 +42161,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -42050,7 +42242,7 @@
         </is>
       </c>
       <c r="U445" s="2" t="n">
-        <v>45299</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="446">
@@ -42163,7 +42355,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -42221,7 +42413,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O447" t="inlineStr"/>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P447" t="n">
         <v>0</v>
       </c>
@@ -42232,7 +42428,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -42240,7 +42436,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="448">
@@ -42256,7 +42452,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -42329,7 +42525,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>38680</v>
+        <v>38997</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -42337,7 +42533,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="449">
@@ -42717,7 +42913,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -42771,7 +42967,11 @@
         </is>
       </c>
       <c r="N453" t="inlineStr"/>
-      <c r="O453" t="inlineStr"/>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P453" t="n">
         <v>0</v>
       </c>
@@ -42782,7 +42982,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>41850</v>
+        <v>42441</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -42790,7 +42990,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45307</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="454">
@@ -43667,7 +43867,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -43740,7 +43940,7 @@
         <v>0</v>
       </c>
       <c r="S463" t="n">
-        <v>27825</v>
+        <v>27911</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -43748,7 +43948,7 @@
         </is>
       </c>
       <c r="U463" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="464">
@@ -43764,7 +43964,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -43837,7 +44037,7 @@
         <v>0</v>
       </c>
       <c r="S464" t="n">
-        <v>18509</v>
+        <v>18587</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -43845,7 +44045,7 @@
         </is>
       </c>
       <c r="U464" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="465">
@@ -44055,7 +44255,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -44113,7 +44313,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O467" t="inlineStr"/>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P467" t="n">
         <v>0</v>
       </c>
@@ -44124,7 +44328,7 @@
         <v>0</v>
       </c>
       <c r="S467" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="T467" t="inlineStr">
         <is>
@@ -44132,7 +44336,7 @@
         </is>
       </c>
       <c r="U467" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="468">
@@ -44148,7 +44352,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -44221,7 +44425,7 @@
         <v>0</v>
       </c>
       <c r="S468" t="n">
-        <v>7118</v>
+        <v>7148</v>
       </c>
       <c r="T468" t="inlineStr">
         <is>
@@ -44229,7 +44433,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45304</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="469">
@@ -45009,7 +45213,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -45067,7 +45271,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O477" t="inlineStr"/>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P477" t="n">
         <v>0</v>
       </c>
@@ -45078,7 +45286,7 @@
         <v>0</v>
       </c>
       <c r="S477" t="n">
-        <v>3037</v>
+        <v>3064</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
@@ -45086,7 +45294,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45280</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="478">
@@ -45575,7 +45783,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -45629,7 +45837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O483" t="inlineStr"/>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P483" t="n">
         <v>0</v>
       </c>
@@ -45640,7 +45852,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>27538</v>
+        <v>27768</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -45648,7 +45860,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45286</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="484">
@@ -45761,7 +45973,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -45834,7 +46046,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>35476</v>
+        <v>36242</v>
       </c>
       <c r="T485" t="inlineStr">
         <is>
@@ -45842,7 +46054,7 @@
         </is>
       </c>
       <c r="U485" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="486">
@@ -45955,7 +46167,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -46009,7 +46221,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O487" t="inlineStr"/>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P487" t="n">
         <v>0</v>
       </c>
@@ -46020,7 +46236,7 @@
         <v>0</v>
       </c>
       <c r="S487" t="n">
-        <v>19441</v>
+        <v>19760</v>
       </c>
       <c r="T487" t="inlineStr">
         <is>
@@ -46028,7 +46244,7 @@
         </is>
       </c>
       <c r="U487" s="2" t="n">
-        <v>45273</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="488">
@@ -46044,7 +46260,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -46117,7 +46333,7 @@
         <v>0</v>
       </c>
       <c r="S488" t="n">
-        <v>16072</v>
+        <v>16212</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
@@ -46125,7 +46341,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="489">
@@ -46335,7 +46551,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -46408,7 +46624,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>14621</v>
+        <v>14713</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
@@ -46416,7 +46632,7 @@
         </is>
       </c>
       <c r="U491" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="492">
@@ -46626,7 +46842,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -46707,7 +46923,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45305</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="495">
@@ -47297,7 +47513,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -47355,7 +47571,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P501" t="n">
         <v>0</v>
       </c>
@@ -47366,7 +47586,7 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>21454</v>
+        <v>21779</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
@@ -47374,7 +47594,7 @@
         </is>
       </c>
       <c r="U501" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="502">
@@ -48356,7 +48576,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -48414,7 +48634,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P512" t="n">
         <v>0</v>
       </c>
@@ -48425,7 +48649,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>4034</v>
+        <v>4087</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -48433,7 +48657,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="513">
@@ -48449,7 +48673,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -48507,7 +48731,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O513" t="inlineStr"/>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P513" t="n">
         <v>0</v>
       </c>
@@ -48518,7 +48746,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>18249</v>
+        <v>18469</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -48526,7 +48754,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="514">
@@ -49213,7 +49441,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -49286,7 +49514,7 @@
         <v>0</v>
       </c>
       <c r="S521" t="n">
-        <v>10804</v>
+        <v>10727</v>
       </c>
       <c r="T521" t="inlineStr">
         <is>
@@ -49294,7 +49522,7 @@
         </is>
       </c>
       <c r="U521" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="522">
@@ -49650,7 +49878,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -49731,7 +49959,7 @@
         </is>
       </c>
       <c r="U526" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="527">
@@ -49844,7 +50072,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -49902,7 +50130,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O528" t="inlineStr"/>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P528" t="n">
         <v>0</v>
       </c>
@@ -49913,7 +50145,7 @@
         <v>0</v>
       </c>
       <c r="S528" t="n">
-        <v>17742</v>
+        <v>17820</v>
       </c>
       <c r="T528" t="inlineStr">
         <is>
@@ -49921,7 +50153,7 @@
         </is>
       </c>
       <c r="U528" s="2" t="n">
-        <v>45299</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="529">
@@ -49937,7 +50169,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -49995,7 +50227,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O529" t="inlineStr"/>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P529" t="n">
         <v>0</v>
       </c>
@@ -50006,7 +50242,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>43827</v>
+        <v>44099</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -50014,7 +50250,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45282</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="530">
@@ -50216,7 +50452,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/12/16</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -50274,7 +50510,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O532" t="inlineStr"/>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P532" t="n">
         <v>0</v>
       </c>
@@ -50285,7 +50525,7 @@
         <v>0</v>
       </c>
       <c r="S532" t="n">
-        <v>32107</v>
+        <v>32543</v>
       </c>
       <c r="T532" t="inlineStr">
         <is>
@@ -50293,7 +50533,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45276</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="533">
@@ -50406,7 +50646,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -50464,7 +50704,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O534" t="inlineStr"/>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P534" t="n">
         <v>0</v>
       </c>
@@ -50475,7 +50719,7 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>25389</v>
+        <v>25861</v>
       </c>
       <c r="T534" t="inlineStr">
         <is>
@@ -50483,7 +50727,7 @@
         </is>
       </c>
       <c r="U534" s="2" t="n">
-        <v>45273</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="535">
@@ -50499,7 +50743,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -50557,7 +50801,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O535" t="inlineStr"/>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P535" t="n">
         <v>0</v>
       </c>
@@ -50568,7 +50816,7 @@
         <v>0</v>
       </c>
       <c r="S535" t="n">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="T535" t="inlineStr">
         <is>
@@ -50576,7 +50824,7 @@
         </is>
       </c>
       <c r="U535" s="2" t="n">
-        <v>45294</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="536">
@@ -50786,7 +51034,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -50844,7 +51092,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O538" t="inlineStr"/>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P538" t="n">
         <v>0</v>
       </c>
@@ -50855,7 +51107,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="n">
-        <v>22696</v>
+        <v>23025</v>
       </c>
       <c r="T538" t="inlineStr">
         <is>
@@ -50863,7 +51115,7 @@
         </is>
       </c>
       <c r="U538" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="539">
@@ -50976,7 +51228,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -51034,7 +51286,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O540" t="inlineStr"/>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P540" t="n">
         <v>0</v>
       </c>
@@ -51045,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>3560</v>
+        <v>3611</v>
       </c>
       <c r="T540" t="inlineStr">
         <is>
@@ -51053,7 +51309,7 @@
         </is>
       </c>
       <c r="U540" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="541">
@@ -51356,7 +51612,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -51414,7 +51670,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O544" t="inlineStr"/>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P544" t="n">
         <v>0</v>
       </c>
@@ -51425,7 +51685,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -51433,7 +51693,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45281</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="545">
@@ -51934,7 +52194,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -51992,7 +52252,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O550" t="inlineStr"/>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P550" t="n">
         <v>0</v>
       </c>
@@ -52003,7 +52267,7 @@
         <v>0</v>
       </c>
       <c r="S550" t="n">
-        <v>16157</v>
+        <v>16290</v>
       </c>
       <c r="T550" t="inlineStr">
         <is>
@@ -52011,7 +52275,7 @@
         </is>
       </c>
       <c r="U550" s="2" t="n">
-        <v>45288</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="551">
@@ -52605,7 +52869,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -52659,7 +52923,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O557" t="inlineStr"/>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P557" t="n">
         <v>0</v>
       </c>
@@ -52670,7 +52938,7 @@
         <v>0</v>
       </c>
       <c r="S557" t="n">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="T557" t="inlineStr">
         <is>
@@ -52678,7 +52946,7 @@
         </is>
       </c>
       <c r="U557" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="558">
@@ -52787,7 +53055,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -52860,7 +53128,7 @@
         <v>0</v>
       </c>
       <c r="S559" t="n">
-        <v>22116</v>
+        <v>22160</v>
       </c>
       <c r="T559" t="inlineStr">
         <is>
@@ -52868,7 +53136,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="560">
@@ -54501,7 +54769,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -54559,7 +54827,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O577" t="inlineStr"/>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P577" t="n">
         <v>0</v>
       </c>
@@ -54570,7 +54842,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="n">
-        <v>2648</v>
+        <v>2676</v>
       </c>
       <c r="T577" t="inlineStr">
         <is>
@@ -54578,7 +54850,7 @@
         </is>
       </c>
       <c r="U577" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="578">
@@ -55605,7 +55877,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -55678,7 +55950,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>49227</v>
+        <v>49702</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -55686,7 +55958,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45294</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="590">
@@ -55896,7 +56168,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -55954,7 +56226,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P592" t="n">
         <v>0</v>
       </c>
@@ -55965,7 +56241,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>152373</v>
+        <v>154502</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -55973,7 +56249,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45286</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="593">
@@ -56466,7 +56742,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -56539,7 +56815,7 @@
         <v>0</v>
       </c>
       <c r="S598" t="n">
-        <v>19192</v>
+        <v>19270</v>
       </c>
       <c r="T598" t="inlineStr">
         <is>
@@ -56547,7 +56823,7 @@
         </is>
       </c>
       <c r="U598" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="599">
@@ -56757,7 +57033,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -56815,7 +57091,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O601" t="inlineStr"/>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P601" t="n">
         <v>0</v>
       </c>
@@ -56826,7 +57106,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>82810</v>
+        <v>85350</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -56834,7 +57114,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="602">
@@ -57424,7 +57704,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -57482,7 +57762,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O608" t="inlineStr"/>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P608" t="n">
         <v>0</v>
       </c>
@@ -57493,7 +57777,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="T608" t="inlineStr">
         <is>
@@ -57501,7 +57785,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45286</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="609">
@@ -57614,7 +57898,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -57672,7 +57956,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O610" t="inlineStr"/>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P610" t="n">
         <v>0</v>
       </c>
@@ -57683,7 +57971,7 @@
         <v>0</v>
       </c>
       <c r="S610" t="n">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="T610" t="inlineStr">
         <is>
@@ -57691,7 +57979,7 @@
         </is>
       </c>
       <c r="U610" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="611">
@@ -57707,7 +57995,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -57788,7 +58076,7 @@
         </is>
       </c>
       <c r="U611" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="612">
@@ -58940,7 +59228,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -58998,7 +59286,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O624" t="inlineStr"/>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P624" t="n">
         <v>0</v>
       </c>
@@ -59009,7 +59301,7 @@
         <v>0</v>
       </c>
       <c r="S624" t="n">
-        <v>3127</v>
+        <v>3299</v>
       </c>
       <c r="T624" t="inlineStr">
         <is>
@@ -59017,7 +59309,7 @@
         </is>
       </c>
       <c r="U624" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="625">
@@ -59324,7 +59616,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -59382,7 +59674,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O628" t="inlineStr"/>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P628" t="n">
         <v>0</v>
       </c>
@@ -59393,7 +59689,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -59401,7 +59697,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="629">
@@ -59781,7 +60077,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
@@ -59842,7 +60138,7 @@
         </is>
       </c>
       <c r="U633" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="634">
@@ -60044,7 +60340,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2023/12/23</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -60102,7 +60398,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O636" t="inlineStr"/>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P636" t="n">
         <v>0</v>
       </c>
@@ -60113,7 +60413,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>3620</v>
+        <v>3856</v>
       </c>
       <c r="T636" t="inlineStr">
         <is>
@@ -60121,7 +60421,7 @@
         </is>
       </c>
       <c r="U636" s="2" t="n">
-        <v>45283</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="637">
@@ -60331,7 +60631,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -60389,7 +60689,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O639" t="inlineStr"/>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P639" t="n">
         <v>0</v>
       </c>
@@ -60400,7 +60704,7 @@
         <v>0</v>
       </c>
       <c r="S639" t="n">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="T639" t="inlineStr">
         <is>
@@ -60408,7 +60712,7 @@
         </is>
       </c>
       <c r="U639" s="2" t="n">
-        <v>45272</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="640">
@@ -61868,7 +62172,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -61886,7 +62190,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O656" t="inlineStr"/>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P656" t="n">
         <v>0</v>
       </c>
@@ -61897,7 +62205,7 @@
         <v>0</v>
       </c>
       <c r="S656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T656" t="inlineStr">
         <is>
@@ -61905,7 +62213,7 @@
         </is>
       </c>
       <c r="U656" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="657">
@@ -61998,7 +62306,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
@@ -62016,7 +62324,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O658" t="inlineStr"/>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P658" t="n">
         <v>0</v>
       </c>
@@ -62027,7 +62339,7 @@
         <v>0</v>
       </c>
       <c r="S658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T658" t="inlineStr">
         <is>
@@ -62035,7 +62347,7 @@
         </is>
       </c>
       <c r="U658" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="659">
@@ -62051,7 +62363,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
@@ -62069,7 +62381,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O659" t="inlineStr"/>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P659" t="n">
         <v>0</v>
       </c>
@@ -62080,7 +62396,7 @@
         <v>0</v>
       </c>
       <c r="S659" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T659" t="inlineStr">
         <is>
@@ -62088,7 +62404,7 @@
         </is>
       </c>
       <c r="U659" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="660">
@@ -62104,7 +62420,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
@@ -62122,7 +62438,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O660" t="inlineStr"/>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P660" t="n">
         <v>0</v>
       </c>
@@ -62133,7 +62453,7 @@
         <v>0</v>
       </c>
       <c r="S660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T660" t="inlineStr">
         <is>
@@ -62141,7 +62461,7 @@
         </is>
       </c>
       <c r="U660" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="661">
@@ -62157,7 +62477,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
@@ -62175,7 +62495,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O661" t="inlineStr"/>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P661" t="n">
         <v>0</v>
       </c>
@@ -62186,7 +62510,7 @@
         <v>0</v>
       </c>
       <c r="S661" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T661" t="inlineStr">
         <is>
@@ -62194,7 +62518,7 @@
         </is>
       </c>
       <c r="U661" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="662">
@@ -62210,7 +62534,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
@@ -62228,7 +62552,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O662" t="inlineStr"/>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P662" t="n">
         <v>0</v>
       </c>
@@ -62239,7 +62567,7 @@
         <v>0</v>
       </c>
       <c r="S662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T662" t="inlineStr">
         <is>
@@ -62247,7 +62575,7 @@
         </is>
       </c>
       <c r="U662" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="663">
@@ -62263,7 +62591,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
@@ -62281,7 +62609,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O663" t="inlineStr"/>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P663" t="n">
         <v>0</v>
       </c>
@@ -62292,7 +62624,7 @@
         <v>0</v>
       </c>
       <c r="S663" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T663" t="inlineStr">
         <is>
@@ -62300,7 +62632,7 @@
         </is>
       </c>
       <c r="U663" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="664">
@@ -62316,7 +62648,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
@@ -62334,7 +62666,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O664" t="inlineStr"/>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P664" t="n">
         <v>0</v>
       </c>
@@ -62345,7 +62681,7 @@
         <v>0</v>
       </c>
       <c r="S664" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T664" t="inlineStr">
         <is>
@@ -62353,7 +62689,7 @@
         </is>
       </c>
       <c r="U664" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="665">
@@ -62369,7 +62705,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
@@ -62387,7 +62723,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O665" t="inlineStr"/>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P665" t="n">
         <v>0</v>
       </c>
@@ -62398,7 +62738,7 @@
         <v>0</v>
       </c>
       <c r="S665" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T665" t="inlineStr">
         <is>
@@ -62406,7 +62746,7 @@
         </is>
       </c>
       <c r="U665" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="666">
@@ -62422,7 +62762,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -62440,7 +62780,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O666" t="inlineStr"/>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P666" t="n">
         <v>0</v>
       </c>
@@ -62451,7 +62795,7 @@
         <v>0</v>
       </c>
       <c r="S666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T666" t="inlineStr">
         <is>
@@ -62459,7 +62803,7 @@
         </is>
       </c>
       <c r="U666" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="667">
@@ -62475,7 +62819,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -62493,7 +62837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O667" t="inlineStr"/>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P667" t="n">
         <v>0</v>
       </c>
@@ -62504,7 +62852,7 @@
         <v>0</v>
       </c>
       <c r="S667" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T667" t="inlineStr">
         <is>
@@ -62512,7 +62860,7 @@
         </is>
       </c>
       <c r="U667" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="668">
@@ -62528,7 +62876,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -62546,7 +62894,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O668" t="inlineStr"/>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P668" t="n">
         <v>0</v>
       </c>
@@ -62557,7 +62909,7 @@
         <v>0</v>
       </c>
       <c r="S668" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T668" t="inlineStr">
         <is>
@@ -62565,7 +62917,7 @@
         </is>
       </c>
       <c r="U668" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="669">
@@ -62581,7 +62933,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
@@ -62599,7 +62951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O669" t="inlineStr"/>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P669" t="n">
         <v>0</v>
       </c>
@@ -62610,7 +62966,7 @@
         <v>0</v>
       </c>
       <c r="S669" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T669" t="inlineStr">
         <is>
@@ -62618,7 +62974,7 @@
         </is>
       </c>
       <c r="U669" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="670">
@@ -62634,7 +62990,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
@@ -62652,7 +63008,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O670" t="inlineStr"/>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P670" t="n">
         <v>0</v>
       </c>
@@ -62663,7 +63023,7 @@
         <v>0</v>
       </c>
       <c r="S670" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T670" t="inlineStr">
         <is>
@@ -62671,7 +63031,7 @@
         </is>
       </c>
       <c r="U670" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="671">
@@ -62687,7 +63047,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
@@ -62705,7 +63065,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O671" t="inlineStr"/>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P671" t="n">
         <v>0</v>
       </c>
@@ -62716,7 +63080,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -62724,7 +63088,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="672">
@@ -62740,7 +63104,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
@@ -62758,7 +63122,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O672" t="inlineStr"/>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P672" t="n">
         <v>0</v>
       </c>
@@ -62769,7 +63137,7 @@
         <v>0</v>
       </c>
       <c r="S672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T672" t="inlineStr">
         <is>
@@ -62777,7 +63145,7 @@
         </is>
       </c>
       <c r="U672" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="673">
@@ -62793,7 +63161,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
@@ -62811,7 +63179,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O673" t="inlineStr"/>
+      <c r="O673" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P673" t="n">
         <v>0</v>
       </c>
@@ -62822,7 +63194,7 @@
         <v>0</v>
       </c>
       <c r="S673" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T673" t="inlineStr">
         <is>
@@ -62830,7 +63202,7 @@
         </is>
       </c>
       <c r="U673" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="674">
@@ -62846,7 +63218,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
@@ -62864,7 +63236,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O674" t="inlineStr"/>
+      <c r="O674" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P674" t="n">
         <v>0</v>
       </c>
@@ -62875,7 +63251,7 @@
         <v>0</v>
       </c>
       <c r="S674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T674" t="inlineStr">
         <is>
@@ -62883,7 +63259,7 @@
         </is>
       </c>
       <c r="U674" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="675">
@@ -62899,7 +63275,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
@@ -62917,7 +63293,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O675" t="inlineStr"/>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P675" t="n">
         <v>0</v>
       </c>
@@ -62928,7 +63308,7 @@
         <v>0</v>
       </c>
       <c r="S675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T675" t="inlineStr">
         <is>
@@ -62936,7 +63316,7 @@
         </is>
       </c>
       <c r="U675" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="676">
@@ -62952,7 +63332,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
@@ -62970,7 +63350,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O676" t="inlineStr"/>
+      <c r="O676" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P676" t="n">
         <v>0</v>
       </c>
@@ -62981,7 +63365,7 @@
         <v>0</v>
       </c>
       <c r="S676" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T676" t="inlineStr">
         <is>
@@ -62989,7 +63373,7 @@
         </is>
       </c>
       <c r="U676" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="677">
@@ -63005,7 +63389,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
@@ -63023,7 +63407,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O677" t="inlineStr"/>
+      <c r="O677" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P677" t="n">
         <v>0</v>
       </c>
@@ -63034,7 +63422,7 @@
         <v>0</v>
       </c>
       <c r="S677" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T677" t="inlineStr">
         <is>
@@ -63042,7 +63430,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="678">
@@ -63058,7 +63446,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
@@ -63076,7 +63464,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O678" t="inlineStr"/>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P678" t="n">
         <v>0</v>
       </c>
@@ -63087,7 +63479,7 @@
         <v>0</v>
       </c>
       <c r="S678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T678" t="inlineStr">
         <is>
@@ -63095,7 +63487,7 @@
         </is>
       </c>
       <c r="U678" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="679">
@@ -63111,7 +63503,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
@@ -63129,7 +63521,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O679" t="inlineStr"/>
+      <c r="O679" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P679" t="n">
         <v>0</v>
       </c>
@@ -63140,7 +63536,7 @@
         <v>0</v>
       </c>
       <c r="S679" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T679" t="inlineStr">
         <is>
@@ -63148,7 +63544,7 @@
         </is>
       </c>
       <c r="U679" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="680">
@@ -63164,7 +63560,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
@@ -63182,7 +63578,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O680" t="inlineStr"/>
+      <c r="O680" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P680" t="n">
         <v>0</v>
       </c>
@@ -63193,7 +63593,7 @@
         <v>0</v>
       </c>
       <c r="S680" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T680" t="inlineStr">
         <is>
@@ -63201,7 +63601,7 @@
         </is>
       </c>
       <c r="U680" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="681">
@@ -63217,7 +63617,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
@@ -63235,7 +63635,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O681" t="inlineStr"/>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P681" t="n">
         <v>0</v>
       </c>
@@ -63246,7 +63650,7 @@
         <v>0</v>
       </c>
       <c r="S681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T681" t="inlineStr">
         <is>
@@ -63254,7 +63658,7 @@
         </is>
       </c>
       <c r="U681" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="682">
@@ -63270,7 +63674,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
@@ -63288,7 +63692,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O682" t="inlineStr"/>
+      <c r="O682" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P682" t="n">
         <v>0</v>
       </c>
@@ -63299,7 +63707,7 @@
         <v>0</v>
       </c>
       <c r="S682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T682" t="inlineStr">
         <is>
@@ -63307,7 +63715,7 @@
         </is>
       </c>
       <c r="U682" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="683">
@@ -63323,7 +63731,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
@@ -63341,7 +63749,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O683" t="inlineStr"/>
+      <c r="O683" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P683" t="n">
         <v>0</v>
       </c>
@@ -63352,7 +63764,7 @@
         <v>0</v>
       </c>
       <c r="S683" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T683" t="inlineStr">
         <is>
@@ -63360,7 +63772,7 @@
         </is>
       </c>
       <c r="U683" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="684">
@@ -63376,7 +63788,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
@@ -63394,7 +63806,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O684" t="inlineStr"/>
+      <c r="O684" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P684" t="n">
         <v>0</v>
       </c>
@@ -63405,7 +63821,7 @@
         <v>0</v>
       </c>
       <c r="S684" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -63413,7 +63829,7 @@
         </is>
       </c>
       <c r="U684" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="685">
@@ -63429,7 +63845,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
@@ -63447,7 +63863,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O685" t="inlineStr"/>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P685" t="n">
         <v>0</v>
       </c>
@@ -63458,7 +63878,7 @@
         <v>0</v>
       </c>
       <c r="S685" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T685" t="inlineStr">
         <is>
@@ -63466,7 +63886,7 @@
         </is>
       </c>
       <c r="U685" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="686">
@@ -63482,7 +63902,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
@@ -63500,7 +63920,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O686" t="inlineStr"/>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P686" t="n">
         <v>0</v>
       </c>
@@ -63511,7 +63935,7 @@
         <v>0</v>
       </c>
       <c r="S686" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T686" t="inlineStr">
         <is>
@@ -63519,7 +63943,7 @@
         </is>
       </c>
       <c r="U686" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="687">
@@ -63535,7 +63959,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
@@ -63553,7 +63977,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O687" t="inlineStr"/>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P687" t="n">
         <v>0</v>
       </c>
@@ -63564,7 +63992,7 @@
         <v>0</v>
       </c>
       <c r="S687" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T687" t="inlineStr">
         <is>
@@ -63572,7 +64000,7 @@
         </is>
       </c>
       <c r="U687" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="688">
@@ -63588,7 +64016,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
@@ -63606,7 +64034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O688" t="inlineStr"/>
+      <c r="O688" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P688" t="n">
         <v>0</v>
       </c>
@@ -63617,7 +64049,7 @@
         <v>0</v>
       </c>
       <c r="S688" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T688" t="inlineStr">
         <is>
@@ -63625,7 +64057,7 @@
         </is>
       </c>
       <c r="U688" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="689">
@@ -63636,12 +64068,12 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Itata</t>
+          <t>Delegación Presidencial Regional de Ñuble</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
@@ -63659,7 +64091,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O689" t="inlineStr"/>
+      <c r="O689" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P689" t="n">
         <v>0</v>
       </c>
@@ -63670,15 +64106,15 @@
         <v>0</v>
       </c>
       <c r="S689" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T689" t="inlineStr">
         <is>
-          <t>AB097</t>
+          <t>AB094</t>
         </is>
       </c>
       <c r="U689" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="690">
@@ -63689,12 +64125,12 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Punilla</t>
+          <t>Delegación Presidencial Provincial de Itata</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
@@ -63712,7 +64148,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O690" t="inlineStr"/>
+      <c r="O690" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P690" t="n">
         <v>0</v>
       </c>
@@ -63723,15 +64163,15 @@
         <v>0</v>
       </c>
       <c r="S690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T690" t="inlineStr">
         <is>
-          <t>AB096</t>
+          <t>AB097</t>
         </is>
       </c>
       <c r="U690" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="691">
@@ -63742,12 +64182,12 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Biobío</t>
+          <t>Delegación Presidencial Provincial de Punilla</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
@@ -63765,7 +64205,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O691" t="inlineStr"/>
+      <c r="O691" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P691" t="n">
         <v>0</v>
       </c>
@@ -63776,15 +64220,15 @@
         <v>0</v>
       </c>
       <c r="S691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T691" t="inlineStr">
         <is>
-          <t>AB019</t>
+          <t>AB096</t>
         </is>
       </c>
       <c r="U691" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="692">
@@ -63795,12 +64239,12 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tocopilla</t>
+          <t>Delegación Presidencial Regional del Biobío</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
@@ -63818,7 +64262,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O692" t="inlineStr"/>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P692" t="n">
         <v>0</v>
       </c>
@@ -63829,15 +64277,15 @@
         <v>0</v>
       </c>
       <c r="S692" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T692" t="inlineStr">
         <is>
-          <t>AB028</t>
+          <t>AB019</t>
         </is>
       </c>
       <c r="U692" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="693">
@@ -63848,12 +64296,12 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de La Araucanía</t>
+          <t>Delegación Presidencial Provincial de Tocopilla</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
@@ -63871,7 +64319,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O693" t="inlineStr"/>
+      <c r="O693" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P693" t="n">
         <v>0</v>
       </c>
@@ -63882,15 +64334,15 @@
         <v>0</v>
       </c>
       <c r="S693" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T693" t="inlineStr">
         <is>
-          <t>AB012</t>
+          <t>AB028</t>
         </is>
       </c>
       <c r="U693" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="694">
@@ -63901,12 +64353,12 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Malleco</t>
+          <t>Delegación Presidencial Regional de La Araucanía</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
@@ -63924,7 +64376,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O694" t="inlineStr"/>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P694" t="n">
         <v>0</v>
       </c>
@@ -63935,15 +64391,15 @@
         <v>0</v>
       </c>
       <c r="S694" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T694" t="inlineStr">
         <is>
-          <t>AB053</t>
+          <t>AB012</t>
         </is>
       </c>
       <c r="U694" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="695">
@@ -63954,12 +64410,12 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Los Ríos</t>
+          <t>Delegación Presidencial Provincial de Malleco</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
@@ -63977,7 +64433,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O695" t="inlineStr"/>
+      <c r="O695" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P695" t="n">
         <v>0</v>
       </c>
@@ -63988,15 +64448,15 @@
         <v>0</v>
       </c>
       <c r="S695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T695" t="inlineStr">
         <is>
-          <t>AB014</t>
+          <t>AB053</t>
         </is>
       </c>
       <c r="U695" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="696">
@@ -64007,12 +64467,12 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de última Esperanza</t>
+          <t>Delegación Presidencial Regional de Los Ríos</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
@@ -64030,7 +64490,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O696" t="inlineStr"/>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P696" t="n">
         <v>0</v>
       </c>
@@ -64041,15 +64505,15 @@
         <v>0</v>
       </c>
       <c r="S696" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T696" t="inlineStr">
         <is>
-          <t>AB065</t>
+          <t>AB014</t>
         </is>
       </c>
       <c r="U696" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="697">
@@ -64060,12 +64524,12 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Los Lagos</t>
+          <t>Delegación Presidencial Provincial de última Esperanza</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
@@ -64083,7 +64547,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O697" t="inlineStr"/>
+      <c r="O697" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P697" t="n">
         <v>0</v>
       </c>
@@ -64098,11 +64566,11 @@
       </c>
       <c r="T697" t="inlineStr">
         <is>
-          <t>AB013</t>
+          <t>AB065</t>
         </is>
       </c>
       <c r="U697" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="698">
@@ -64113,12 +64581,12 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Osorno</t>
+          <t>Delegación Presidencial Regional de Los Lagos</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
@@ -64136,7 +64604,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O698" t="inlineStr"/>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P698" t="n">
         <v>0</v>
       </c>
@@ -64147,15 +64619,15 @@
         <v>0</v>
       </c>
       <c r="S698" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T698" t="inlineStr">
         <is>
-          <t>AB057</t>
+          <t>AB013</t>
         </is>
       </c>
       <c r="U698" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="699">
@@ -64166,12 +64638,12 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chiloé</t>
+          <t>Delegación Presidencial Provincial de Osorno</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
@@ -64189,7 +64661,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O699" t="inlineStr"/>
+      <c r="O699" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P699" t="n">
         <v>0</v>
       </c>
@@ -64204,11 +64680,11 @@
       </c>
       <c r="T699" t="inlineStr">
         <is>
-          <t>AB059</t>
+          <t>AB057</t>
         </is>
       </c>
       <c r="U699" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="700">
@@ -64219,12 +64695,12 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Palena</t>
+          <t>Delegación Presidencial Provincial de Chiloé</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
@@ -64242,7 +64718,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O700" t="inlineStr"/>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P700" t="n">
         <v>0</v>
       </c>
@@ -64253,15 +64733,15 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T700" t="inlineStr">
         <is>
-          <t>AB060</t>
+          <t>AB059</t>
         </is>
       </c>
       <c r="U700" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="701">
@@ -64272,12 +64752,12 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
+          <t>Delegación Presidencial Provincial de Palena</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
@@ -64295,7 +64775,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O701" t="inlineStr"/>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P701" t="n">
         <v>0</v>
       </c>
@@ -64306,15 +64790,15 @@
         <v>0</v>
       </c>
       <c r="S701" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T701" t="inlineStr">
         <is>
-          <t>AB010</t>
+          <t>AB060</t>
         </is>
       </c>
       <c r="U701" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="702">
@@ -64325,12 +64809,12 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Aysén</t>
+          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
@@ -64348,7 +64832,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O702" t="inlineStr"/>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P702" t="n">
         <v>0</v>
       </c>
@@ -64359,15 +64847,15 @@
         <v>0</v>
       </c>
       <c r="S702" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T702" t="inlineStr">
         <is>
-          <t>AB062</t>
+          <t>AB010</t>
         </is>
       </c>
       <c r="U702" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="703">
@@ -64378,12 +64866,12 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de General Carrera</t>
+          <t>Delegación Presidencial Provincial de Aysén</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
@@ -64401,7 +64889,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O703" t="inlineStr"/>
+      <c r="O703" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P703" t="n">
         <v>0</v>
       </c>
@@ -64412,15 +64904,15 @@
         <v>0</v>
       </c>
       <c r="S703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
-          <t>AB063</t>
+          <t>AB062</t>
         </is>
       </c>
       <c r="U703" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="704">
@@ -64431,12 +64923,12 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Capitán Prat</t>
+          <t>Delegación Presidencial Provincial de General Carrera</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
@@ -64454,7 +64946,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O704" t="inlineStr"/>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P704" t="n">
         <v>0</v>
       </c>
@@ -64465,15 +64961,15 @@
         <v>0</v>
       </c>
       <c r="S704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T704" t="inlineStr">
         <is>
-          <t>AB064</t>
+          <t>AB063</t>
         </is>
       </c>
       <c r="U704" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="705">
@@ -64484,12 +64980,12 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
+          <t>Delegación Presidencial Provincial de Capitán Prat</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
@@ -64507,7 +65003,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O705" t="inlineStr"/>
+      <c r="O705" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P705" t="n">
         <v>0</v>
       </c>
@@ -64522,11 +65022,11 @@
       </c>
       <c r="T705" t="inlineStr">
         <is>
-          <t>AB015</t>
+          <t>AB064</t>
         </is>
       </c>
       <c r="U705" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="706">
@@ -64537,12 +65037,12 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Maule</t>
+          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
@@ -64560,7 +65060,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O706" t="inlineStr"/>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P706" t="n">
         <v>0</v>
       </c>
@@ -64575,11 +65079,11 @@
       </c>
       <c r="T706" t="inlineStr">
         <is>
-          <t>AB020</t>
+          <t>AB015</t>
         </is>
       </c>
       <c r="U706" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="707">
@@ -64590,12 +65094,12 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Tarapacá</t>
+          <t>Delegación Presidencial Regional del Maule</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
@@ -64613,7 +65117,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O707" t="inlineStr"/>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P707" t="n">
         <v>0</v>
       </c>
@@ -64624,15 +65132,15 @@
         <v>0</v>
       </c>
       <c r="S707" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T707" t="inlineStr">
         <is>
-          <t>AB017</t>
+          <t>AB020</t>
         </is>
       </c>
       <c r="U707" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="708">
@@ -64643,12 +65151,12 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Servicio Electoral (SERVEL)</t>
+          <t>Delegación Presidencial Regional de Tarapacá</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
@@ -64681,15 +65189,15 @@
         <v>0</v>
       </c>
       <c r="S708" t="n">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="T708" t="inlineStr">
         <is>
-          <t>AB006</t>
+          <t>AB017</t>
         </is>
       </c>
       <c r="U708" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="709">
@@ -64700,12 +65208,12 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Parinacota</t>
+          <t>Servicio Electoral (SERVEL)</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
@@ -64723,7 +65231,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O709" t="inlineStr"/>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P709" t="n">
         <v>0</v>
       </c>
@@ -64734,15 +65246,15 @@
         <v>0</v>
       </c>
       <c r="S709" t="n">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="T709" t="inlineStr">
         <is>
-          <t>AB023</t>
+          <t>AB006</t>
         </is>
       </c>
       <c r="U709" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="710">
@@ -64753,12 +65265,12 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tamarugal</t>
+          <t>Delegación Presidencial Provincial de Parinacota</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
@@ -64776,7 +65288,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O710" t="inlineStr"/>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P710" t="n">
         <v>0</v>
       </c>
@@ -64787,15 +65303,15 @@
         <v>0</v>
       </c>
       <c r="S710" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T710" t="inlineStr">
         <is>
-          <t>AB025</t>
+          <t>AB023</t>
         </is>
       </c>
       <c r="U710" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="711">
@@ -64806,12 +65322,12 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Delegación Presidencial Provincial de Tamarugal</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
@@ -64844,15 +65360,15 @@
         <v>0</v>
       </c>
       <c r="S711" t="n">
-        <v>1073</v>
+        <v>2</v>
       </c>
       <c r="T711" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>AB025</t>
         </is>
       </c>
       <c r="U711" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="712">
@@ -64863,12 +65379,12 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/15</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
@@ -64881,7 +65397,11 @@
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr"/>
       <c r="M712" t="inlineStr"/>
-      <c r="N712" t="inlineStr"/>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O712" t="inlineStr">
         <is>
           <t>x</t>
@@ -64897,15 +65417,15 @@
         <v>0</v>
       </c>
       <c r="S712" t="n">
-        <v>502</v>
+        <v>1073</v>
       </c>
       <c r="T712" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="U712" s="2" t="n">
-        <v>45301</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="713">
@@ -64916,12 +65436,12 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
@@ -64934,11 +65454,7 @@
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr"/>
       <c r="M713" t="inlineStr"/>
-      <c r="N713" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N713" t="inlineStr"/>
       <c r="O713" t="inlineStr">
         <is>
           <t>x</t>
@@ -64954,15 +65470,284 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
+        <v>502</v>
+      </c>
+      <c r="T713" t="inlineStr">
+        <is>
+          <t>MU144</t>
+        </is>
+      </c>
+      <c r="U713" s="2" t="n">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Municipalidad de Curanilahue</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>2024/01/12</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
+      <c r="S714" t="n">
         <v>895</v>
       </c>
-      <c r="T713" t="inlineStr">
+      <c r="T714" t="inlineStr">
         <is>
           <t>MU075</t>
         </is>
       </c>
-      <c r="U713" s="2" t="n">
+      <c r="U714" s="2" t="n">
         <v>45303</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Municipalidad de Panquehue</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
+      <c r="N715" t="inlineStr"/>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
+      <c r="S715" t="n">
+        <v>163</v>
+      </c>
+      <c r="T715" t="inlineStr">
+        <is>
+          <t>MU201</t>
+        </is>
+      </c>
+      <c r="U715" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Santa Rosa</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
+      <c r="N716" t="inlineStr"/>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
+      <c r="S716" t="n">
+        <v>1</v>
+      </c>
+      <c r="T716" t="inlineStr">
+        <is>
+          <t>AJ037</t>
+        </is>
+      </c>
+      <c r="U716" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Delegación Presidencial Provincial de Cardenal Caro</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+      <c r="N717" t="inlineStr"/>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
+      <c r="S717" t="n">
+        <v>1</v>
+      </c>
+      <c r="T717" t="inlineStr">
+        <is>
+          <t>AB044</t>
+        </is>
+      </c>
+      <c r="U717" s="2" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Delegación Presidencial Provincial de Isla de Pascua</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>2024/01/16</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr"/>
+      <c r="N718" t="inlineStr"/>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
+      <c r="S718" t="n">
+        <v>1</v>
+      </c>
+      <c r="T718" t="inlineStr">
+        <is>
+          <t>AB041</t>
+        </is>
+      </c>
+      <c r="U718" s="2" t="n">
+        <v>45307</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U718"/>
+  <dimension ref="A1:U719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1036,7 +1036,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19880</v>
+        <v>20315</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1055,7 +1059,7 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="11">
@@ -3454,7 +3458,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3512,7 +3516,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
@@ -3523,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70670</v>
+        <v>71199</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3531,7 +3539,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45266</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="39">
@@ -3733,7 +3741,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3791,7 +3799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
@@ -3802,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10776</v>
+        <v>10918</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3810,7 +3822,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45286</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="42">
@@ -4117,7 +4129,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4190,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>15535</v>
+        <v>15608</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4198,7 +4210,7 @@
         </is>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="46">
@@ -4970,7 +4982,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5028,7 +5040,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
@@ -5039,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>12900</v>
+        <v>13041</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5047,7 +5063,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="55">
@@ -5350,7 +5366,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5408,7 +5424,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
@@ -5419,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>29258</v>
+        <v>29457</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5427,7 +5447,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45258</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="59">
@@ -5443,7 +5463,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5497,7 +5517,11 @@
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
@@ -5508,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5516,7 +5540,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45287</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="60">
@@ -6013,7 +6037,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6071,7 +6095,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -6082,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>24535</v>
+        <v>24913</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6090,7 +6118,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45287</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="66">
@@ -6296,7 +6324,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6354,7 +6382,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
@@ -6365,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>2211</v>
+        <v>2231</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6373,7 +6405,7 @@
         </is>
       </c>
       <c r="U68" s="2" t="n">
-        <v>45271</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="69">
@@ -8936,7 +8968,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9009,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>18598</v>
+        <v>18752</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -9017,7 +9049,7 @@
         </is>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45307</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="97">
@@ -9902,7 +9934,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9983,7 +10015,7 @@
         </is>
       </c>
       <c r="U106" s="2" t="n">
-        <v>45306</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="107">
@@ -10634,7 +10666,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -10707,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>53766</v>
+        <v>54078</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -10715,7 +10747,7 @@
         </is>
       </c>
       <c r="U114" s="2" t="n">
-        <v>45302</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="115">
@@ -12570,7 +12602,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12651,7 +12683,7 @@
         </is>
       </c>
       <c r="U134" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="135">
@@ -13536,7 +13568,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13617,7 +13649,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="n">
-        <v>45301</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="145">
@@ -13823,7 +13855,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13881,7 +13913,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P147" t="n">
         <v>0</v>
       </c>
@@ -13892,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>15376</v>
+        <v>15451</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -13900,7 +13936,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="148">
@@ -13916,7 +13952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13989,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>16638</v>
+        <v>16693</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -13997,7 +14033,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45302</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="149">
@@ -15444,7 +15480,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -15477,7 +15513,7 @@
         </is>
       </c>
       <c r="U164" s="2" t="n">
-        <v>45303</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="165">
@@ -15784,7 +15820,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -15857,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>21760</v>
+        <v>21799</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -15865,7 +15901,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="169">
@@ -16269,7 +16305,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -16322,7 +16358,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O173" t="inlineStr">
         <is>
           <t>x</t>
@@ -16338,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>1556</v>
+        <v>1609</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -16346,7 +16386,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45258</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="174">
@@ -19252,7 +19292,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -19325,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>7995</v>
+        <v>8017</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -19333,7 +19373,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45301</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="205">
@@ -22046,7 +22086,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -22127,7 +22167,7 @@
         </is>
       </c>
       <c r="U234" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="235">
@@ -23501,7 +23541,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -23574,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>24302</v>
+        <v>24242</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -23582,7 +23622,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45307</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="250">
@@ -24354,7 +24394,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -24407,7 +24447,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O258" t="inlineStr">
         <is>
           <t>x</t>
@@ -24423,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>1883</v>
+        <v>1931</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -24431,7 +24475,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45308</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="259">
@@ -29249,7 +29293,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -29307,7 +29351,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P309" t="n">
         <v>0</v>
       </c>
@@ -29318,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>42687</v>
+        <v>43463</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -29326,7 +29374,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="310">
@@ -29488,7 +29536,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -29561,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>15511</v>
+        <v>15584</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -29569,7 +29617,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="313">
@@ -30264,7 +30312,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -30322,7 +30370,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P320" t="n">
         <v>0</v>
       </c>
@@ -30333,7 +30385,7 @@
         <v>0</v>
       </c>
       <c r="S320" t="n">
-        <v>52886</v>
+        <v>53201</v>
       </c>
       <c r="T320" t="inlineStr">
         <is>
@@ -30341,7 +30393,7 @@
         </is>
       </c>
       <c r="U320" s="2" t="n">
-        <v>45289</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="321">
@@ -31117,7 +31169,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -31198,7 +31250,7 @@
         </is>
       </c>
       <c r="U329" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="330">
@@ -31214,7 +31266,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -31262,9 +31314,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr"/>
-      <c r="N330" t="inlineStr"/>
-      <c r="O330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P330" t="n">
         <v>0</v>
       </c>
@@ -31275,7 +31339,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>5795</v>
+        <v>5904</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -31283,7 +31347,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45240</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="331">
@@ -31396,7 +31460,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -31477,7 +31541,7 @@
         </is>
       </c>
       <c r="U332" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="333">
@@ -31780,7 +31844,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -31861,7 +31925,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="337">
@@ -33809,7 +33873,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -33867,7 +33931,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O357" t="inlineStr"/>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P357" t="n">
         <v>0</v>
       </c>
@@ -33878,7 +33946,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>24059</v>
+        <v>24138</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -33886,7 +33954,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="358">
@@ -35062,7 +35130,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -35120,7 +35188,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O370" t="inlineStr"/>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P370" t="n">
         <v>0</v>
       </c>
@@ -35131,7 +35203,7 @@
         <v>0</v>
       </c>
       <c r="S370" t="n">
-        <v>29489</v>
+        <v>29936</v>
       </c>
       <c r="T370" t="inlineStr">
         <is>
@@ -35139,7 +35211,7 @@
         </is>
       </c>
       <c r="U370" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="371">
@@ -36125,7 +36197,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -36206,7 +36278,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45306</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="382">
@@ -36319,7 +36391,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -36392,7 +36464,7 @@
         <v>0</v>
       </c>
       <c r="S383" t="n">
-        <v>14120</v>
+        <v>14305</v>
       </c>
       <c r="T383" t="inlineStr">
         <is>
@@ -36400,7 +36472,7 @@
         </is>
       </c>
       <c r="U383" s="2" t="n">
-        <v>45301</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="384">
@@ -37855,7 +37927,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -37913,7 +37985,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O399" t="inlineStr"/>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P399" t="n">
         <v>0</v>
       </c>
@@ -37924,7 +38000,7 @@
         <v>0</v>
       </c>
       <c r="S399" t="n">
-        <v>10818</v>
+        <v>10949</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -37932,7 +38008,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="400">
@@ -37948,7 +38024,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -38021,7 +38097,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>17335</v>
+        <v>17589</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -38029,7 +38105,7 @@
         </is>
       </c>
       <c r="U400" s="2" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="401">
@@ -38619,7 +38695,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -38700,7 +38776,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="408">
@@ -40293,7 +40369,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -40351,7 +40427,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P425" t="n">
         <v>0</v>
       </c>
@@ -40362,7 +40442,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>52657</v>
+        <v>53441</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -40370,7 +40450,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45275</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="426">
@@ -40916,7 +40996,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -40989,7 +41069,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -40997,7 +41077,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="433">
@@ -42719,7 +42799,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -42800,7 +42880,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45299</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="452">
@@ -43006,7 +43086,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -43083,7 +43163,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45301</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="455">
@@ -43099,7 +43179,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -43157,7 +43237,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O455" t="inlineStr"/>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P455" t="n">
         <v>0</v>
       </c>
@@ -43168,7 +43252,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>1877</v>
+        <v>1888</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -43176,7 +43260,7 @@
         </is>
       </c>
       <c r="U455" s="2" t="n">
-        <v>45268</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="456">
@@ -43192,7 +43276,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -43265,7 +43349,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>31506</v>
+        <v>31769</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -43273,7 +43357,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45301</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="457">
@@ -43483,7 +43567,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -43556,7 +43640,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>13461</v>
+        <v>13509</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -43564,7 +43648,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="460">
@@ -43580,7 +43664,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -43638,7 +43722,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O460" t="inlineStr"/>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P460" t="n">
         <v>0</v>
       </c>
@@ -43649,7 +43737,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>20844</v>
+        <v>21145</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -43657,7 +43745,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="461">
@@ -44061,7 +44149,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -44142,7 +44230,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45295</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="466">
@@ -45213,7 +45301,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -45286,7 +45374,7 @@
         <v>0</v>
       </c>
       <c r="S477" t="n">
-        <v>3064</v>
+        <v>3082</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
@@ -45294,7 +45382,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="478">
@@ -45310,7 +45398,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -45383,7 +45471,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>125494</v>
+        <v>127270</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -45391,7 +45479,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="479">
@@ -45686,7 +45774,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -45759,7 +45847,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -45767,7 +45855,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="483">
@@ -46070,7 +46158,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -46151,7 +46239,7 @@
         </is>
       </c>
       <c r="U486" s="2" t="n">
-        <v>45301</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="487">
@@ -46260,7 +46348,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -46341,7 +46429,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45309</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="489">
@@ -46648,7 +46736,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -46721,7 +46809,7 @@
         <v>0</v>
       </c>
       <c r="S492" t="n">
-        <v>7530</v>
+        <v>7590</v>
       </c>
       <c r="T492" t="inlineStr">
         <is>
@@ -46729,7 +46817,7 @@
         </is>
       </c>
       <c r="U492" s="2" t="n">
-        <v>45302</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="493">
@@ -46842,7 +46930,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -46915,7 +47003,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>17291</v>
+        <v>17282</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -46923,7 +47011,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45308</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="495">
@@ -47327,7 +47415,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -47400,7 +47488,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45259</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="500">
@@ -47416,7 +47504,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -47497,7 +47585,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="501">
@@ -48095,7 +48183,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -48168,7 +48256,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>76731</v>
+        <v>76840</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -48176,7 +48264,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="508">
@@ -49158,7 +49246,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -49216,7 +49304,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O518" t="inlineStr"/>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P518" t="n">
         <v>0</v>
       </c>
@@ -49227,7 +49319,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -49235,7 +49327,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45286</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="519">
@@ -49251,7 +49343,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -49309,7 +49401,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O519" t="inlineStr"/>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P519" t="n">
         <v>0</v>
       </c>
@@ -49320,7 +49416,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>107779</v>
+        <v>109278</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -49328,7 +49424,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45281</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="520">
@@ -50169,7 +50265,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -50242,7 +50338,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>44099</v>
+        <v>44160</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -50250,7 +50346,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45307</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="530">
@@ -50266,7 +50362,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -50339,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="S530" t="n">
-        <v>24777</v>
+        <v>24917</v>
       </c>
       <c r="T530" t="inlineStr">
         <is>
@@ -50347,7 +50443,7 @@
         </is>
       </c>
       <c r="U530" s="2" t="n">
-        <v>45303</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="531">
@@ -50363,7 +50459,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -50416,8 +50512,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N531" t="inlineStr"/>
-      <c r="O531" t="inlineStr"/>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P531" t="n">
         <v>0</v>
       </c>
@@ -50428,7 +50532,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>1933</v>
+        <v>1969</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -50436,7 +50540,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45259</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="532">
@@ -52578,7 +52682,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -52651,7 +52755,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="n">
-        <v>6179</v>
+        <v>6201</v>
       </c>
       <c r="T554" t="inlineStr">
         <is>
@@ -52659,7 +52763,7 @@
         </is>
       </c>
       <c r="U554" s="2" t="n">
-        <v>45303</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="555">
@@ -54009,7 +54113,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -54063,7 +54167,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O569" t="inlineStr"/>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P569" t="n">
         <v>0</v>
       </c>
@@ -54074,7 +54182,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>15725</v>
+        <v>15935</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -54082,7 +54190,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45288</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="570">
@@ -54292,7 +54400,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -54350,7 +54458,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O572" t="inlineStr"/>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P572" t="n">
         <v>0</v>
       </c>
@@ -54361,7 +54473,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>4909</v>
+        <v>4968</v>
       </c>
       <c r="T572" t="inlineStr">
         <is>
@@ -54369,7 +54481,7 @@
         </is>
       </c>
       <c r="U572" s="2" t="n">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="573">
@@ -56459,7 +56571,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -56467,7 +56579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="E595" t="inlineStr"/>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F595" t="inlineStr">
         <is>
           <t>x</t>
@@ -56532,7 +56648,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45307</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="596">
@@ -59996,7 +60112,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -60061,7 +60177,7 @@
         </is>
       </c>
       <c r="U632" s="2" t="n">
-        <v>45295</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="633">
@@ -60077,7 +60193,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
@@ -60138,7 +60254,7 @@
         </is>
       </c>
       <c r="U633" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="634">
@@ -60728,7 +60844,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -60801,7 +60917,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>1554</v>
+        <v>1587</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -60809,7 +60925,7 @@
         </is>
       </c>
       <c r="U640" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="641">
@@ -61771,7 +61887,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -61829,7 +61945,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O651" t="inlineStr"/>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P651" t="n">
         <v>0</v>
       </c>
@@ -61840,7 +61960,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>1570</v>
+        <v>1692</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -61848,7 +61968,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="652">
@@ -62229,7 +62349,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
@@ -62270,8 +62390,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N657" t="inlineStr"/>
-      <c r="O657" t="inlineStr"/>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P657" t="n">
         <v>0</v>
       </c>
@@ -62282,7 +62410,7 @@
         <v>0</v>
       </c>
       <c r="S657" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T657" t="inlineStr">
         <is>
@@ -62290,7 +62418,7 @@
         </is>
       </c>
       <c r="U657" s="2" t="n">
-        <v>45250</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="658">
@@ -65750,6 +65878,55 @@
         <v>45307</v>
       </c>
     </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Municipalidad de Algarrobo</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>2024/01/22</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
+      <c r="N719" t="inlineStr"/>
+      <c r="O719" t="inlineStr"/>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
+      <c r="S719" t="n">
+        <v>55</v>
+      </c>
+      <c r="T719" t="inlineStr">
+        <is>
+          <t>MU001</t>
+        </is>
+      </c>
+      <c r="U719" s="2" t="n">
+        <v>45313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado2.xlsx
+++ b/consolidado2.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U719"/>
+  <dimension ref="A1:U720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="U7" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="8">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45300</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="25">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3095,7 +3095,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2525</v>
+        <v>2553</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3114,7 +3118,7 @@
         </is>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45282</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="34">
@@ -3268,7 +3272,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3326,7 +3330,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>10563</v>
+        <v>10686</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3345,7 +3353,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="37">
@@ -3458,7 +3466,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3531,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71199</v>
+        <v>71811</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3539,7 +3547,7 @@
         </is>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45313</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="39">
@@ -4032,7 +4040,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4105,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6182</v>
+        <v>6319</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4113,7 +4121,7 @@
         </is>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45300</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="45">
@@ -4416,7 +4424,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4474,7 +4482,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>17747</v>
+        <v>17954</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4493,7 +4505,7 @@
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45275</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="49">
@@ -4509,7 +4521,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4582,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>12204</v>
+        <v>12249</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4590,7 +4602,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="50">
@@ -5366,7 +5378,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5439,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>29457</v>
+        <v>29700</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5447,7 +5459,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="59">
@@ -6134,7 +6146,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6215,7 +6227,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45304</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="67">
@@ -6712,7 +6724,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6770,7 +6782,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
@@ -6781,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>14866</v>
+        <v>15063</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6789,7 +6805,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45279</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="73">
@@ -10128,7 +10144,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -10201,7 +10217,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="109">
@@ -11345,7 +11361,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11418,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>17577</v>
+        <v>17603</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -11426,7 +11442,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45307</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="122">
@@ -13471,7 +13487,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -13544,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>2440</v>
+        <v>2463</v>
       </c>
       <c r="T143" t="inlineStr">
         <is>
@@ -13552,7 +13568,7 @@
         </is>
       </c>
       <c r="U143" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="144">
@@ -13855,7 +13871,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13928,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>15451</v>
+        <v>15564</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -13936,7 +13952,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45314</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="148">
@@ -14049,7 +14065,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -14122,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>46472</v>
+        <v>47095</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -14130,7 +14146,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45295</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="150">
@@ -14918,7 +14934,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -14961,10 +14977,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P158" t="n">
         <v>0</v>
       </c>
@@ -14975,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>5596</v>
+        <v>5924</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -14983,7 +15015,7 @@
         </is>
       </c>
       <c r="U158" s="2" t="n">
-        <v>45190</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="159">
@@ -16208,7 +16240,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -16289,7 +16321,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45309</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="173">
@@ -16887,7 +16919,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -16945,7 +16977,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P179" t="n">
         <v>0</v>
       </c>
@@ -16956,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -16964,7 +17000,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45307</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="180">
@@ -17271,7 +17307,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -17344,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -17352,7 +17388,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45301</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="184">
@@ -18423,7 +18459,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -18504,7 +18540,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="196">
@@ -18904,7 +18940,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -18977,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>33488</v>
+        <v>33528</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -18985,7 +19021,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="201">
@@ -19482,7 +19518,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -19555,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="T206" t="inlineStr">
         <is>
@@ -19563,7 +19599,7 @@
         </is>
       </c>
       <c r="U206" s="2" t="n">
-        <v>45299</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="207">
@@ -20157,7 +20193,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -20238,7 +20274,7 @@
         </is>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="214">
@@ -20885,7 +20921,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -20958,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>19162</v>
+        <v>19278</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -20966,7 +21002,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="222">
@@ -21176,7 +21212,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -21249,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>20618</v>
+        <v>20694</v>
       </c>
       <c r="T224" t="inlineStr">
         <is>
@@ -21257,7 +21293,7 @@
         </is>
       </c>
       <c r="U224" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="225">
@@ -23056,7 +23092,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -23129,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>24465</v>
+        <v>24484</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -23137,7 +23173,7 @@
         </is>
       </c>
       <c r="U244" s="2" t="n">
-        <v>45306</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="245">
@@ -23638,7 +23674,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -23711,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
@@ -23719,7 +23755,7 @@
         </is>
       </c>
       <c r="U250" s="2" t="n">
-        <v>45301</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="251">
@@ -24297,7 +24333,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -24378,7 +24414,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="258">
@@ -26318,7 +26354,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -26391,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="S278" t="n">
-        <v>24726</v>
+        <v>24813</v>
       </c>
       <c r="T278" t="inlineStr">
         <is>
@@ -26399,7 +26435,7 @@
         </is>
       </c>
       <c r="U278" s="2" t="n">
-        <v>45310</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="279">
@@ -31169,7 +31205,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -31250,7 +31286,7 @@
         </is>
       </c>
       <c r="U329" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="330">
@@ -31266,7 +31302,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/03</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -31339,7 +31375,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>5904</v>
+        <v>6019</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -31347,7 +31383,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45316</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="331">
@@ -33000,7 +33036,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -33073,7 +33109,7 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>12539</v>
+        <v>13031</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -33081,7 +33117,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45302</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="349">
@@ -34358,7 +34394,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -34431,7 +34467,7 @@
         <v>0</v>
       </c>
       <c r="S362" t="n">
-        <v>10294</v>
+        <v>10322</v>
       </c>
       <c r="T362" t="inlineStr">
         <is>
@@ -34439,7 +34475,7 @@
         </is>
       </c>
       <c r="U362" s="2" t="n">
-        <v>45309</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="363">
@@ -34936,7 +34972,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -35009,7 +35045,7 @@
         <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>4170</v>
+        <v>4220</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -35017,7 +35053,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="369">
@@ -37454,7 +37490,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -37508,7 +37544,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O394" t="inlineStr"/>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P394" t="n">
         <v>0</v>
       </c>
@@ -37519,7 +37559,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>2109</v>
+        <v>2185</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -37527,7 +37567,7 @@
         </is>
       </c>
       <c r="U394" s="2" t="n">
-        <v>45281</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="395">
@@ -37640,7 +37680,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -37698,7 +37738,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O396" t="inlineStr"/>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P396" t="n">
         <v>0</v>
       </c>
@@ -37709,7 +37753,7 @@
         <v>0</v>
       </c>
       <c r="S396" t="n">
-        <v>37784</v>
+        <v>38485</v>
       </c>
       <c r="T396" t="inlineStr">
         <is>
@@ -37717,7 +37761,7 @@
         </is>
       </c>
       <c r="U396" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="397">
@@ -38792,7 +38836,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -38873,7 +38917,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45300</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="409">
@@ -41093,7 +41137,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -41151,7 +41195,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O433" t="inlineStr"/>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P433" t="n">
         <v>0</v>
       </c>
@@ -41162,7 +41210,7 @@
         <v>0</v>
       </c>
       <c r="S433" t="n">
-        <v>85895</v>
+        <v>87167</v>
       </c>
       <c r="T433" t="inlineStr">
         <is>
@@ -41170,7 +41218,7 @@
         </is>
       </c>
       <c r="U433" s="2" t="n">
-        <v>45275</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="434">
@@ -41283,7 +41331,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -41356,7 +41404,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>60535</v>
+        <v>60705</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -41364,7 +41412,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="436">
@@ -41380,7 +41428,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -41438,7 +41486,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O436" t="inlineStr"/>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P436" t="n">
         <v>0</v>
       </c>
@@ -41449,7 +41501,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>36635</v>
+        <v>37124</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -41457,7 +41509,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45278</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="437">
@@ -42047,7 +42099,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -42128,7 +42180,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45308</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="444">
@@ -42799,7 +42851,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2024/01/27</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -42872,7 +42924,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>121215</v>
+        <v>122057</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -42880,7 +42932,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45318</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="452">
@@ -45018,7 +45070,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -45091,7 +45143,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>3909</v>
+        <v>3956</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -45099,7 +45151,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45295</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="475">
@@ -45115,7 +45167,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -45188,7 +45240,7 @@
         <v>0</v>
       </c>
       <c r="S475" t="n">
-        <v>23494</v>
+        <v>23693</v>
       </c>
       <c r="T475" t="inlineStr">
         <is>
@@ -45196,7 +45248,7 @@
         </is>
       </c>
       <c r="U475" s="2" t="n">
-        <v>45301</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="476">
@@ -46348,7 +46400,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -46429,7 +46481,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="489">
@@ -46833,7 +46885,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -46906,7 +46958,7 @@
         <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>333167</v>
+        <v>334654</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
@@ -46914,7 +46966,7 @@
         </is>
       </c>
       <c r="U493" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="494">
@@ -50847,7 +50899,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -50928,7 +50980,7 @@
         </is>
       </c>
       <c r="U535" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="536">
@@ -50944,7 +50996,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -51025,7 +51077,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45302</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="537">
@@ -51041,7 +51093,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -51114,7 +51166,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="n">
-        <v>3594</v>
+        <v>3658</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -51122,7 +51174,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="538">
@@ -53353,7 +53405,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -53411,7 +53463,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O561" t="inlineStr"/>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P561" t="n">
         <v>0</v>
       </c>
@@ -53422,7 +53478,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>14365</v>
+        <v>14463</v>
       </c>
       <c r="T561" t="inlineStr">
         <is>
@@ -53430,7 +53486,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45275</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="562">
@@ -54497,7 +54553,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -54555,7 +54611,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O573" t="inlineStr"/>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P573" t="n">
         <v>0</v>
       </c>
@@ -54566,7 +54626,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>34608</v>
+        <v>35111</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -54574,7 +54634,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45303</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="574">
@@ -54687,7 +54747,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -54760,7 +54820,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>12534</v>
+        <v>12580</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -54768,7 +54828,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="576">
@@ -54978,7 +55038,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -55059,7 +55119,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="579">
@@ -55075,7 +55135,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -55133,7 +55193,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O579" t="inlineStr"/>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P579" t="n">
         <v>0</v>
       </c>
@@ -55144,7 +55208,7 @@
         <v>0</v>
       </c>
       <c r="S579" t="n">
-        <v>35575</v>
+        <v>36075</v>
       </c>
       <c r="T579" t="inlineStr">
         <is>
@@ -55152,7 +55216,7 @@
         </is>
       </c>
       <c r="U579" s="2" t="n">
-        <v>45273</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="580">
@@ -55989,7 +56053,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -56070,7 +56134,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45310</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="590">
@@ -56474,7 +56538,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -56547,7 +56611,7 @@
         <v>0</v>
       </c>
       <c r="S594" t="n">
-        <v>14650</v>
+        <v>14690</v>
       </c>
       <c r="T594" t="inlineStr">
         <is>
@@ -56555,7 +56619,7 @@
         </is>
       </c>
       <c r="U594" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="595">
@@ -57440,7 +57504,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -57513,7 +57577,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T604" t="inlineStr">
         <is>
@@ -57521,7 +57585,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45296</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="605">
@@ -57537,7 +57601,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -57610,7 +57674,7 @@
         <v>0</v>
       </c>
       <c r="S605" t="n">
-        <v>57172</v>
+        <v>57649</v>
       </c>
       <c r="T605" t="inlineStr">
         <is>
@@ -57618,7 +57682,7 @@
         </is>
       </c>
       <c r="U605" s="2" t="n">
-        <v>45300</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="606">
@@ -60112,7 +60176,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -60156,8 +60220,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M632" t="inlineStr"/>
-      <c r="N632" t="inlineStr"/>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="n">
         <v>0</v>
@@ -60169,7 +60241,7 @@
         <v>0</v>
       </c>
       <c r="S632" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
@@ -60177,7 +60249,7 @@
         </is>
       </c>
       <c r="U632" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="633">
@@ -60193,7 +60265,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D633" t="inlineStr"/>
@@ -60254,7 +60326,7 @@
         </is>
       </c>
       <c r="U633" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="634">
@@ -60844,7 +60916,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -60917,7 +60989,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>1587</v>
+        <v>1620</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -60925,7 +60997,7 @@
         </is>
       </c>
       <c r="U640" s="2" t="n">
-        <v>45315</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="641">
@@ -61984,7 +62056,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -62026,7 +62098,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O652" t="inlineStr"/>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P652" t="n">
         <v>0</v>
       </c>
@@ -62037,7 +62113,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>2226</v>
+        <v>2538</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -62045,7 +62121,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45274</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="653">
@@ -62061,7 +62137,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -62118,7 +62194,7 @@
         <v>0</v>
       </c>
       <c r="S653" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T653" t="inlineStr">
         <is>
@@ -62126,7 +62202,7 @@
         </is>
       </c>
       <c r="U653" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="654">
@@ -65569,7 +65645,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
@@ -65598,7 +65674,7 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
-        <v>502</v>
+        <v>722</v>
       </c>
       <c r="T713" t="inlineStr">
         <is>
@@ -65606,7 +65682,7 @@
         </is>
       </c>
       <c r="U713" s="2" t="n">
-        <v>45308</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="714">
@@ -65622,7 +65698,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
@@ -65635,11 +65711,7 @@
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr"/>
       <c r="M714" t="inlineStr"/>
-      <c r="N714" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N714" t="inlineStr"/>
       <c r="O714" t="inlineStr">
         <is>
           <t>x</t>
@@ -65655,7 +65727,7 @@
         <v>0</v>
       </c>
       <c r="S714" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="T714" t="inlineStr">
         <is>
@@ -65663,7 +65735,7 @@
         </is>
       </c>
       <c r="U714" s="2" t="n">
-        <v>45303</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="715">
@@ -65927,6 +65999,59 @@
         <v>45313</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>TA_PersonalPlanta</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>CFT de la Región del Tarapacá</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>2024/02/01</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
+      <c r="N720" t="inlineStr"/>
+      <c r="O720" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
+      <c r="S720" t="n">
+        <v>54</v>
+      </c>
+      <c r="T720" t="inlineStr">
+        <is>
+          <t>CF003</t>
+        </is>
+      </c>
+      <c r="U720" s="2" t="n">
+        <v>45323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
